--- a/docs.xlsx
+++ b/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\MeusProjetos\Limp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7E3CB3-E94E-475E-9B74-F49110D24B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21E08F7-4D2A-49B1-9291-575E7733794C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="411">
   <si>
     <t>Base Opcode</t>
   </si>
@@ -1378,6 +1378,12 @@
   <si>
     <t>[JL]
 BLP</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Virtual Mode</t>
   </si>
 </sst>
 </file>
@@ -2737,42 +2743,51 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2785,11 +2800,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2827,72 +2902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2932,6 +2941,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2949,63 +3012,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3324,7 +3330,7 @@
   <dimension ref="B5:AK43"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:AK6"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,50 +3451,50 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154" t="s">
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="158"/>
+      <c r="L6" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="154"/>
-      <c r="N6" s="155" t="s">
+      <c r="M6" s="158"/>
+      <c r="N6" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="159"/>
+      <c r="O6" s="156"/>
       <c r="P6" s="160" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="161"/>
       <c r="R6" s="162"/>
-      <c r="S6" s="155" t="s">
+      <c r="S6" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="156"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="154" t="s">
+      <c r="T6" s="155"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="154"/>
-      <c r="X6" s="154"/>
-      <c r="Y6" s="154"/>
-      <c r="Z6" s="154"/>
-      <c r="AA6" s="154"/>
-      <c r="AB6" s="154"/>
-      <c r="AC6" s="154"/>
-      <c r="AD6" s="154"/>
-      <c r="AE6" s="154"/>
-      <c r="AF6" s="154"/>
-      <c r="AG6" s="154"/>
-      <c r="AH6" s="154"/>
-      <c r="AI6" s="154"/>
-      <c r="AJ6" s="154"/>
-      <c r="AK6" s="158"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="158"/>
+      <c r="Y6" s="158"/>
+      <c r="Z6" s="158"/>
+      <c r="AA6" s="158"/>
+      <c r="AB6" s="158"/>
+      <c r="AC6" s="158"/>
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158"/>
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158"/>
+      <c r="AJ6" s="158"/>
+      <c r="AK6" s="159"/>
     </row>
     <row r="7" spans="3:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -3602,56 +3608,56 @@
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="153" t="s">
+      <c r="F10" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154" t="s">
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="154"/>
-      <c r="N10" s="155" t="s">
+      <c r="M10" s="158"/>
+      <c r="N10" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="155" t="s">
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="S10" s="159"/>
+      <c r="S10" s="156"/>
       <c r="T10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="155" t="s">
+      <c r="U10" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="156"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="155" t="s">
+      <c r="V10" s="155"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="159"/>
-      <c r="AA10" s="155" t="s">
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="159"/>
-      <c r="AD10" s="154" t="s">
+      <c r="AB10" s="155"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="154"/>
-      <c r="AF10" s="154"/>
-      <c r="AG10" s="154"/>
-      <c r="AH10" s="154"/>
-      <c r="AI10" s="154"/>
-      <c r="AJ10" s="154"/>
-      <c r="AK10" s="158"/>
+      <c r="AE10" s="158"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="158"/>
+      <c r="AJ10" s="158"/>
+      <c r="AK10" s="159"/>
     </row>
     <row r="11" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
@@ -3765,54 +3771,54 @@
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="153" t="s">
+      <c r="F14" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="155" t="s">
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="159"/>
-      <c r="N14" s="155" t="s">
+      <c r="M14" s="156"/>
+      <c r="N14" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="159"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="156"/>
       <c r="T14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="155" t="s">
+      <c r="U14" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="156"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="155" t="s">
+      <c r="V14" s="155"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="Y14" s="156"/>
-      <c r="Z14" s="159"/>
-      <c r="AA14" s="155" t="s">
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="159"/>
-      <c r="AD14" s="154" t="s">
+      <c r="AB14" s="155"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="154"/>
-      <c r="AG14" s="154"/>
-      <c r="AH14" s="154"/>
-      <c r="AI14" s="154"/>
-      <c r="AJ14" s="154"/>
-      <c r="AK14" s="158"/>
+      <c r="AE14" s="158"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="158"/>
+      <c r="AJ14" s="158"/>
+      <c r="AK14" s="159"/>
     </row>
     <row r="15" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
@@ -3926,48 +3932,48 @@
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="153" t="s">
+      <c r="F18" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154" t="s">
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="154"/>
-      <c r="N18" s="155" t="s">
+      <c r="M18" s="158"/>
+      <c r="N18" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="159"/>
-      <c r="S18" s="155" t="s">
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="156"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="154" t="s">
+      <c r="T18" s="155"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="154"/>
-      <c r="AH18" s="154"/>
-      <c r="AI18" s="154"/>
-      <c r="AJ18" s="154"/>
-      <c r="AK18" s="158"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="158"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="158"/>
+      <c r="AD18" s="158"/>
+      <c r="AE18" s="158"/>
+      <c r="AF18" s="158"/>
+      <c r="AG18" s="158"/>
+      <c r="AH18" s="158"/>
+      <c r="AI18" s="158"/>
+      <c r="AJ18" s="158"/>
+      <c r="AK18" s="159"/>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
@@ -4081,56 +4087,56 @@
       <c r="E22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F22" s="153" t="s">
+      <c r="F22" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154" t="s">
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="154"/>
-      <c r="N22" s="155" t="s">
+      <c r="M22" s="158"/>
+      <c r="N22" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="156"/>
-      <c r="P22" s="156"/>
-      <c r="Q22" s="156"/>
-      <c r="R22" s="159"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="156"/>
       <c r="S22" s="2">
         <v>1</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U22" s="155" t="s">
+      <c r="U22" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="156"/>
-      <c r="W22" s="159"/>
-      <c r="X22" s="155" t="s">
+      <c r="V22" s="155"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="159"/>
-      <c r="AA22" s="155" t="s">
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="156"/>
-      <c r="AC22" s="159"/>
-      <c r="AD22" s="155" t="s">
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="156"/>
-      <c r="AH22" s="156"/>
-      <c r="AI22" s="156"/>
-      <c r="AJ22" s="156"/>
-      <c r="AK22" s="157"/>
+      <c r="AE22" s="155"/>
+      <c r="AF22" s="155"/>
+      <c r="AG22" s="155"/>
+      <c r="AH22" s="155"/>
+      <c r="AI22" s="155"/>
+      <c r="AJ22" s="155"/>
+      <c r="AK22" s="163"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
@@ -4241,42 +4247,42 @@
       <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="153" t="s">
+      <c r="F26" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="155" t="s">
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="156"/>
-      <c r="Q26" s="156"/>
-      <c r="R26" s="156"/>
-      <c r="S26" s="156"/>
-      <c r="T26" s="156"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="156"/>
-      <c r="W26" s="156"/>
-      <c r="X26" s="156"/>
-      <c r="Y26" s="156"/>
-      <c r="Z26" s="156"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="156"/>
-      <c r="AH26" s="156"/>
-      <c r="AI26" s="156"/>
-      <c r="AJ26" s="156"/>
-      <c r="AK26" s="157"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="155"/>
+      <c r="AF26" s="155"/>
+      <c r="AG26" s="155"/>
+      <c r="AH26" s="155"/>
+      <c r="AI26" s="155"/>
+      <c r="AJ26" s="155"/>
+      <c r="AK26" s="163"/>
     </row>
     <row r="27" spans="2:37" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4395,25 +4401,6 @@
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="V6:AK6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="U10:W10"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="L26:AK26"/>
     <mergeCell ref="AD14:AK14"/>
@@ -4430,6 +4417,25 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="V6:AK6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="X22:Z22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4440,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D65BD74-8BFB-4C53-82FC-D7128D5DB752}">
   <dimension ref="B3:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4457,10 +4463,10 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="166"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
@@ -4481,10 +4487,10 @@
       <c r="B5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="171"/>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4508,10 +4514,10 @@
       <c r="B6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="164"/>
+      <c r="D6" s="165"/>
       <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
@@ -4535,10 +4541,10 @@
       <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="164"/>
+      <c r="D7" s="165"/>
       <c r="E7" s="7" t="s">
         <v>157</v>
       </c>
@@ -4562,10 +4568,10 @@
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="164"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="7" t="s">
         <v>312</v>
       </c>
@@ -4589,10 +4595,10 @@
       <c r="B9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="163" t="s">
+      <c r="C9" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="164"/>
+      <c r="D9" s="165"/>
       <c r="E9" s="7" t="s">
         <v>158</v>
       </c>
@@ -4616,10 +4622,10 @@
       <c r="B10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="164"/>
+      <c r="D10" s="165"/>
       <c r="E10" s="7" t="s">
         <v>313</v>
       </c>
@@ -4643,10 +4649,10 @@
       <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="164"/>
+      <c r="D11" s="165"/>
       <c r="E11" s="7" t="s">
         <v>160</v>
       </c>
@@ -4670,10 +4676,10 @@
       <c r="B12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="164"/>
+      <c r="D12" s="165"/>
       <c r="E12" s="7" t="s">
         <v>314</v>
       </c>
@@ -4697,10 +4703,10 @@
       <c r="B13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="163" t="s">
+      <c r="C13" s="164" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="164"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="7" t="s">
         <v>315</v>
       </c>
@@ -4725,10 +4731,10 @@
       <c r="B14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="163" t="s">
+      <c r="C14" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="164"/>
+      <c r="D14" s="165"/>
       <c r="E14" s="7" t="s">
         <v>316</v>
       </c>
@@ -4752,10 +4758,10 @@
       <c r="B15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="164" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="164"/>
+      <c r="D15" s="165"/>
       <c r="E15" s="7" t="s">
         <v>317</v>
       </c>
@@ -4780,10 +4786,10 @@
       <c r="B16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="164" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="7" t="s">
         <v>318</v>
       </c>
@@ -4807,10 +4813,10 @@
       <c r="B17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="164" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="164"/>
+      <c r="D17" s="165"/>
       <c r="E17" s="7" t="s">
         <v>319</v>
       </c>
@@ -4834,10 +4840,10 @@
       <c r="B18" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="164" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="164"/>
+      <c r="D18" s="165"/>
       <c r="E18" s="7" t="s">
         <v>320</v>
       </c>
@@ -4861,10 +4867,10 @@
       <c r="B19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="164" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="164"/>
+      <c r="D19" s="165"/>
       <c r="E19" s="7" t="s">
         <v>161</v>
       </c>
@@ -4888,10 +4894,10 @@
       <c r="B20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="169" t="s">
+      <c r="C20" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="170"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="9" t="s">
         <v>162</v>
       </c>
@@ -5193,14 +5199,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -5210,6 +5208,14 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5220,8 +5226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3D4C0B-D305-42E3-A494-0FDBD834ABB7}">
   <dimension ref="D1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5231,41 +5237,41 @@
   <sheetData>
     <row r="1" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="189" t="s">
+      <c r="E2" s="185" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="192"/>
-      <c r="X2" s="171" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="X2" s="194" t="s">
         <v>215</v>
       </c>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="172"/>
-      <c r="AH2" s="172"/>
-      <c r="AI2" s="172"/>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="172"/>
-      <c r="AL2" s="173"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="196"/>
     </row>
     <row r="3" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="86">
@@ -5404,49 +5410,49 @@
       <c r="T4" s="85" t="s">
         <v>398</v>
       </c>
-      <c r="X4" s="174" t="s">
+      <c r="X4" s="197" t="s">
         <v>371</v>
       </c>
-      <c r="Y4" s="176" t="s">
+      <c r="Y4" s="199" t="s">
         <v>374</v>
       </c>
-      <c r="Z4" s="176" t="s">
+      <c r="Z4" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="AA4" s="180" t="s">
+      <c r="AA4" s="203" t="s">
         <v>375</v>
       </c>
-      <c r="AB4" s="176" t="s">
+      <c r="AB4" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="AC4" s="180" t="s">
+      <c r="AC4" s="203" t="s">
         <v>375</v>
       </c>
-      <c r="AD4" s="180" t="s">
+      <c r="AD4" s="203" t="s">
         <v>375</v>
       </c>
-      <c r="AE4" s="176" t="s">
+      <c r="AE4" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="AF4" s="176" t="s">
+      <c r="AF4" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="AG4" s="176" t="s">
+      <c r="AG4" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="AH4" s="176" t="s">
+      <c r="AH4" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="AI4" s="176" t="s">
+      <c r="AI4" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="AJ4" s="176" t="s">
+      <c r="AJ4" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="AK4" s="176" t="s">
+      <c r="AK4" s="199" t="s">
         <v>375</v>
       </c>
-      <c r="AL4" s="178" t="s">
+      <c r="AL4" s="201" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5490,21 +5496,21 @@
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
-      <c r="X5" s="175"/>
-      <c r="Y5" s="177"/>
-      <c r="Z5" s="177"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="177"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="182"/>
-      <c r="AE5" s="177"/>
-      <c r="AF5" s="177"/>
-      <c r="AG5" s="177"/>
-      <c r="AH5" s="177"/>
-      <c r="AI5" s="177"/>
-      <c r="AJ5" s="177"/>
-      <c r="AK5" s="177"/>
-      <c r="AL5" s="179"/>
+      <c r="X5" s="198"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="204"/>
+      <c r="AD5" s="205"/>
+      <c r="AE5" s="200"/>
+      <c r="AF5" s="200"/>
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+      <c r="AJ5" s="200"/>
+      <c r="AK5" s="200"/>
+      <c r="AL5" s="202"/>
     </row>
     <row r="6" spans="4:38" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="34">
@@ -5582,34 +5588,34 @@
     </row>
     <row r="8" spans="4:38" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:38" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="193" t="s">
+      <c r="E9" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="194"/>
-      <c r="G9" s="195" t="s">
+      <c r="F9" s="190"/>
+      <c r="G9" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="195"/>
-      <c r="I9" s="196" t="s">
+      <c r="H9" s="191"/>
+      <c r="I9" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="196"/>
-      <c r="K9" s="197" t="s">
+      <c r="J9" s="192"/>
+      <c r="K9" s="193" t="s">
         <v>200</v>
       </c>
-      <c r="L9" s="197"/>
-      <c r="M9" s="185" t="s">
+      <c r="L9" s="193"/>
+      <c r="M9" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="186"/>
-      <c r="O9" s="187" t="s">
+      <c r="N9" s="182"/>
+      <c r="O9" s="183" t="s">
         <v>201</v>
       </c>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="183" t="s">
+      <c r="P9" s="184"/>
+      <c r="Q9" s="179" t="s">
         <v>202</v>
       </c>
-      <c r="R9" s="184"/>
+      <c r="R9" s="180"/>
     </row>
     <row r="10" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5783,7 +5789,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="134" t="str">
+      <c r="I13" s="150" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 INC, DEC, NEG
@@ -5950,7 +5956,7 @@
 MOV
 MOVI</v>
       </c>
-      <c r="F15" s="242" t="str">
+      <c r="F15" s="153" t="str">
         <f t="shared" si="3"/>
         <v>[IR]
 CVBW
@@ -5968,7 +5974,7 @@
         <v>[SI]
 XCHG</v>
       </c>
-      <c r="I15" s="242" t="str">
+      <c r="I15" s="153" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 STEQ, STNE
@@ -6035,42 +6041,29 @@
       <c r="K16" s="146"/>
     </row>
     <row r="17" spans="5:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="201" t="s">
+      <c r="E17" s="175" t="s">
         <v>392</v>
       </c>
-      <c r="F17" s="202"/>
-      <c r="G17" s="203" t="s">
+      <c r="F17" s="176"/>
+      <c r="G17" s="177" t="s">
         <v>393</v>
       </c>
-      <c r="H17" s="203"/>
-      <c r="I17" s="204" t="s">
+      <c r="H17" s="177"/>
+      <c r="I17" s="178" t="s">
         <v>394</v>
       </c>
-      <c r="J17" s="204"/>
-      <c r="K17" s="200" t="s">
+      <c r="J17" s="178"/>
+      <c r="K17" s="174" t="s">
         <v>396</v>
       </c>
-      <c r="L17" s="200"/>
-      <c r="M17" s="198" t="s">
+      <c r="L17" s="174"/>
+      <c r="M17" s="172" t="s">
         <v>395</v>
       </c>
-      <c r="N17" s="199"/>
+      <c r="N17" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="X2:AL2"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
@@ -6087,6 +6080,19 @@
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6097,8 +6103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEADE07-63F5-4EB7-99ED-6A9CAA40D28D}">
   <dimension ref="C2:Y21"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,12 +6181,12 @@
       <c r="P4" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="V4" s="208" t="s">
+      <c r="V4" s="209" t="s">
         <v>329</v>
       </c>
-      <c r="W4" s="209"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="210"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="211"/>
     </row>
     <row r="5" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="45">
@@ -6212,11 +6218,11 @@
       <c r="V5" s="104" t="s">
         <v>330</v>
       </c>
-      <c r="W5" s="211" t="s">
+      <c r="W5" s="212" t="s">
         <v>331</v>
       </c>
-      <c r="X5" s="209"/>
-      <c r="Y5" s="210"/>
+      <c r="X5" s="210"/>
+      <c r="Y5" s="211"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6" s="45">
@@ -6252,11 +6258,11 @@
       <c r="V6" s="105">
         <v>0</v>
       </c>
-      <c r="W6" s="212" t="s">
+      <c r="W6" s="213" t="s">
         <v>332</v>
       </c>
-      <c r="X6" s="213"/>
-      <c r="Y6" s="214"/>
+      <c r="X6" s="214"/>
+      <c r="Y6" s="215"/>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C7" s="45">
@@ -6288,11 +6294,11 @@
       <c r="V7" s="106">
         <v>1</v>
       </c>
-      <c r="W7" s="215" t="s">
+      <c r="W7" s="216" t="s">
         <v>333</v>
       </c>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="217"/>
+      <c r="X7" s="217"/>
+      <c r="Y7" s="218"/>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8" s="45">
@@ -6324,11 +6330,11 @@
       <c r="V8" s="106">
         <v>2</v>
       </c>
-      <c r="W8" s="215" t="s">
+      <c r="W8" s="216" t="s">
         <v>333</v>
       </c>
-      <c r="X8" s="216"/>
-      <c r="Y8" s="217"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="218"/>
     </row>
     <row r="9" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="45">
@@ -6360,11 +6366,11 @@
       <c r="V9" s="107">
         <v>3</v>
       </c>
-      <c r="W9" s="205" t="s">
+      <c r="W9" s="206" t="s">
         <v>333</v>
       </c>
-      <c r="X9" s="206"/>
-      <c r="Y9" s="207"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="208"/>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C10" s="45">
@@ -6420,14 +6426,14 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="55">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="I12" s="53">
         <v>17</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="K12" s="52" t="s">
+      <c r="K12" s="51" t="s">
         <v>370</v>
       </c>
       <c r="N12" s="70">
@@ -6436,7 +6442,16 @@
       <c r="O12" s="71"/>
       <c r="P12" s="74"/>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="55">
+        <v>18</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>410</v>
+      </c>
       <c r="N13" s="72">
         <v>9</v>
       </c>
@@ -6547,7 +6562,7 @@
   <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6564,31 +6579,31 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="230" t="s">
+      <c r="G3" s="233" t="s">
         <v>349</v>
       </c>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="232"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="235"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="235" t="s">
+      <c r="C4" s="219" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="236"/>
-      <c r="E4" s="237"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="G4" s="110" t="s">
         <v>350</v>
       </c>
-      <c r="H4" s="228" t="s">
+      <c r="H4" s="231" t="s">
         <v>337</v>
       </c>
-      <c r="I4" s="229"/>
-      <c r="J4" s="228" t="s">
+      <c r="I4" s="232"/>
+      <c r="J4" s="231" t="s">
         <v>338</v>
       </c>
-      <c r="K4" s="229"/>
+      <c r="K4" s="232"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="120" t="s">
@@ -6603,31 +6618,31 @@
       <c r="G5" s="111" t="s">
         <v>340</v>
       </c>
-      <c r="H5" s="241" t="s">
+      <c r="H5" s="226" t="s">
         <v>354</v>
       </c>
-      <c r="I5" s="214"/>
-      <c r="J5" s="234" t="s">
+      <c r="I5" s="215"/>
+      <c r="J5" s="236" t="s">
         <v>351</v>
       </c>
-      <c r="K5" s="214"/>
+      <c r="K5" s="215"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="218" t="s">
+      <c r="B6" s="237" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="222" t="s">
+      <c r="C6" s="241" t="s">
         <v>357</v>
       </c>
-      <c r="D6" s="222"/>
-      <c r="E6" s="223"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="242"/>
       <c r="G6" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="H6" s="233" t="s">
+      <c r="H6" s="225" t="s">
         <v>361</v>
       </c>
-      <c r="I6" s="217"/>
+      <c r="I6" s="218"/>
       <c r="J6" s="115" t="s">
         <v>351</v>
       </c>
@@ -6636,50 +6651,50 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="219"/>
-      <c r="C7" s="216" t="s">
+      <c r="B7" s="238"/>
+      <c r="C7" s="217" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="216"/>
-      <c r="E7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="218"/>
       <c r="G7" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="H7" s="233" t="s">
+      <c r="H7" s="225" t="s">
         <v>361</v>
       </c>
-      <c r="I7" s="217"/>
-      <c r="J7" s="233" t="s">
+      <c r="I7" s="218"/>
+      <c r="J7" s="225" t="s">
         <v>351</v>
       </c>
-      <c r="K7" s="217"/>
+      <c r="K7" s="218"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="219"/>
-      <c r="C8" s="216" t="s">
+      <c r="B8" s="238"/>
+      <c r="C8" s="217" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="216"/>
-      <c r="E8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="218"/>
       <c r="G8" s="112" t="s">
         <v>343</v>
       </c>
-      <c r="H8" s="239" t="s">
+      <c r="H8" s="223" t="s">
         <v>353</v>
       </c>
-      <c r="I8" s="240"/>
-      <c r="J8" s="233" t="s">
+      <c r="I8" s="224"/>
+      <c r="J8" s="225" t="s">
         <v>351</v>
       </c>
-      <c r="K8" s="217"/>
+      <c r="K8" s="218"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="220"/>
-      <c r="C9" s="206" t="s">
+      <c r="B9" s="239"/>
+      <c r="C9" s="207" t="s">
         <v>359</v>
       </c>
-      <c r="D9" s="206"/>
-      <c r="E9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="208"/>
       <c r="G9" s="112" t="s">
         <v>344</v>
       </c>
@@ -6689,23 +6704,23 @@
       <c r="I9" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="J9" s="233" t="s">
+      <c r="J9" s="225" t="s">
         <v>351</v>
       </c>
-      <c r="K9" s="217"/>
+      <c r="K9" s="218"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="238" t="s">
+      <c r="H10" s="222" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="207"/>
-      <c r="J10" s="221" t="s">
+      <c r="I10" s="208"/>
+      <c r="J10" s="240" t="s">
         <v>351</v>
       </c>
-      <c r="K10" s="207"/>
+      <c r="K10" s="208"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6729,27 +6744,28 @@
       <c r="G13" s="118" t="s">
         <v>355</v>
       </c>
-      <c r="H13" s="226" t="s">
+      <c r="H13" s="229" t="s">
         <v>348</v>
       </c>
-      <c r="I13" s="227"/>
+      <c r="I13" s="230"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G14" s="119" t="s">
         <v>353</v>
       </c>
-      <c r="H14" s="224" t="s">
+      <c r="H14" s="227" t="s">
         <v>352</v>
       </c>
-      <c r="I14" s="225"/>
+      <c r="I14" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H4:I4"/>
@@ -6760,12 +6776,11 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs.xlsx
+++ b/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\MeusProjetos\Limp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21E08F7-4D2A-49B1-9291-575E7733794C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E7DA7-AA6F-40AA-A08D-BF9D075A7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="409">
   <si>
     <t>Base Opcode</t>
   </si>
@@ -878,10 +878,6 @@
   <si>
     <t>[JL]
 NOP</t>
-  </si>
-  <si>
-    <t>[SI]
-IN, OUT</t>
   </si>
   <si>
     <t>[SI]
@@ -920,11 +916,6 @@
 MV.cc</t>
   </si>
   <si>
-    <t>[CDI]
-JRR.cc
-BRR.cc</t>
-  </si>
-  <si>
     <t>[IR]
 PSHI
 PSHR
@@ -1073,13 +1064,6 @@
     <t>!Z&amp;N</t>
   </si>
   <si>
-    <t>[SI]
-CPWR, CPRR
-CPDI, CPEN
-CPCHKST
-CPCMD</t>
-  </si>
-  <si>
     <t>[IR]
 MVTR
 MVFR</t>
@@ -1202,18 +1186,6 @@
     <t>[CDI]
 STSI, STSD
 MVSI, MVSD</t>
-  </si>
-  <si>
-    <t>[SI]
-PSHAS
-PSHSS
-PSHS</t>
-  </si>
-  <si>
-    <t>[SI]
-POPAS
-POPSS
-POPS</t>
   </si>
   <si>
     <t>PM</t>
@@ -1248,12 +1220,6 @@
   </si>
   <si>
     <t>[SI]
-NOT
-STB, CLB
-SWAPB</t>
-  </si>
-  <si>
-    <t>[SI]
 INC, DEC, NEG
 MADD, MSUB,
 MADC, MSBB,
@@ -1337,18 +1303,6 @@
 STRQ</t>
   </si>
   <si>
-    <t>[ADI]
-JA.cc
-BA.cc</t>
-  </si>
-  <si>
-    <t>[CDI]
-JR.cc
-BR.cc
-XJP.cc
-XBR.cc</t>
-  </si>
-  <si>
     <t>[AMI]
 CMP, CPB</t>
   </si>
@@ -1363,27 +1317,68 @@
   </si>
   <si>
     <t>(V==N)|Z</t>
+  </si>
+  <si>
+    <t>[JL]
+JLP</t>
+  </si>
+  <si>
+    <t>[JL]
+BLP</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Virtual Mode</t>
   </si>
   <si>
     <t>[CDI]
 JRA.cc
 BRA.cc
-JRALP.cc
-BRALP.cc</t>
-  </si>
-  <si>
-    <t>[JL]
-JLP</t>
-  </si>
-  <si>
-    <t>[JL]
-BLP</t>
-  </si>
-  <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>Virtual Mode</t>
+JRAP.cc
+BRAP.cc</t>
+  </si>
+  <si>
+    <t>[CDI]
+JRR.cc
+BRR.cc
+XJP.cc
+XBR.cc</t>
+  </si>
+  <si>
+    <t>[ADI]
+JA.cc
+BA.cc
+JR.cc
+BR.cc</t>
+  </si>
+  <si>
+    <t>[IR]
+POPAS
+POPSS
+POPS</t>
+  </si>
+  <si>
+    <t>[IR]
+PSHAS
+PSHSS
+PSHS</t>
+  </si>
+  <si>
+    <t>[SI]
+IN, OUT
+CPWR, CPRR
+CPDI, CPEN
+CPCHKST
+CPCMD</t>
+  </si>
+  <si>
+    <t>[SI]
+NOT
+SETB, CLRB,
+SWAP
+SWAPB</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2425,9 +2420,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2698,9 +2690,6 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2716,9 +2705,6 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2746,24 +2732,27 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2773,32 +2762,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2821,87 +2888,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2941,6 +2927,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2959,59 +2996,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3329,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010DB54F-0064-4558-AEAA-353B181D2777}">
   <dimension ref="B5:AK43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,50 +3455,50 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="157" t="s">
+      <c r="F6" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158" t="s">
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="158"/>
-      <c r="N6" s="154" t="s">
+      <c r="M6" s="152"/>
+      <c r="N6" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="156"/>
-      <c r="P6" s="160" t="s">
+      <c r="O6" s="157"/>
+      <c r="P6" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="161"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="154" t="s">
+      <c r="Q6" s="159"/>
+      <c r="R6" s="160"/>
+      <c r="S6" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="155"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="158" t="s">
+      <c r="T6" s="154"/>
+      <c r="U6" s="157"/>
+      <c r="V6" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="158"/>
-      <c r="X6" s="158"/>
-      <c r="Y6" s="158"/>
-      <c r="Z6" s="158"/>
-      <c r="AA6" s="158"/>
-      <c r="AB6" s="158"/>
-      <c r="AC6" s="158"/>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158"/>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158"/>
-      <c r="AJ6" s="158"/>
-      <c r="AK6" s="159"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="152"/>
+      <c r="AC6" s="152"/>
+      <c r="AD6" s="152"/>
+      <c r="AE6" s="152"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="152"/>
+      <c r="AH6" s="152"/>
+      <c r="AI6" s="152"/>
+      <c r="AJ6" s="152"/>
+      <c r="AK6" s="156"/>
     </row>
     <row r="7" spans="3:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -3608,56 +3612,56 @@
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="157" t="s">
+      <c r="F10" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158" t="s">
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="158"/>
-      <c r="N10" s="154" t="s">
+      <c r="M10" s="152"/>
+      <c r="N10" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="154" t="s">
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="S10" s="156"/>
+      <c r="S10" s="157"/>
       <c r="T10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="154" t="s">
+      <c r="U10" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="155"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="154" t="s">
+      <c r="V10" s="154"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="156"/>
-      <c r="AA10" s="154" t="s">
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="156"/>
-      <c r="AD10" s="158" t="s">
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="159"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="152"/>
+      <c r="AH10" s="152"/>
+      <c r="AI10" s="152"/>
+      <c r="AJ10" s="152"/>
+      <c r="AK10" s="156"/>
     </row>
     <row r="11" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
@@ -3771,54 +3775,54 @@
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="157" t="s">
+      <c r="F14" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="154" t="s">
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="156"/>
-      <c r="N14" s="154" t="s">
+      <c r="M14" s="157"/>
+      <c r="N14" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="156"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="157"/>
       <c r="T14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="154" t="s">
+      <c r="U14" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="155"/>
-      <c r="W14" s="156"/>
-      <c r="X14" s="154" t="s">
+      <c r="V14" s="154"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="153" t="s">
         <v>112</v>
       </c>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="156"/>
-      <c r="AA14" s="154" t="s">
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="157"/>
+      <c r="AA14" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="156"/>
-      <c r="AD14" s="158" t="s">
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="157"/>
+      <c r="AD14" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="AE14" s="158"/>
-      <c r="AF14" s="158"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="158"/>
-      <c r="AJ14" s="158"/>
-      <c r="AK14" s="159"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="152"/>
+      <c r="AH14" s="152"/>
+      <c r="AI14" s="152"/>
+      <c r="AJ14" s="152"/>
+      <c r="AK14" s="156"/>
     </row>
     <row r="15" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
@@ -3932,48 +3936,48 @@
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="157" t="s">
+      <c r="F18" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158" t="s">
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="158"/>
-      <c r="N18" s="154" t="s">
+      <c r="M18" s="152"/>
+      <c r="N18" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="154" t="s">
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="155"/>
-      <c r="U18" s="156"/>
-      <c r="V18" s="158" t="s">
+      <c r="T18" s="154"/>
+      <c r="U18" s="157"/>
+      <c r="V18" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="158"/>
-      <c r="AJ18" s="158"/>
-      <c r="AK18" s="159"/>
+      <c r="W18" s="152"/>
+      <c r="X18" s="152"/>
+      <c r="Y18" s="152"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="152"/>
+      <c r="AB18" s="152"/>
+      <c r="AC18" s="152"/>
+      <c r="AD18" s="152"/>
+      <c r="AE18" s="152"/>
+      <c r="AF18" s="152"/>
+      <c r="AG18" s="152"/>
+      <c r="AH18" s="152"/>
+      <c r="AI18" s="152"/>
+      <c r="AJ18" s="152"/>
+      <c r="AK18" s="156"/>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
@@ -4087,56 +4091,56 @@
       <c r="E22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F22" s="157" t="s">
+      <c r="F22" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158" t="s">
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="158"/>
-      <c r="N22" s="154" t="s">
+      <c r="M22" s="152"/>
+      <c r="N22" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="156"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="157"/>
       <c r="S22" s="2">
         <v>1</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U22" s="154" t="s">
+      <c r="U22" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="155"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="154" t="s">
+      <c r="V22" s="154"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="154" t="s">
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="157"/>
+      <c r="AA22" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="156"/>
-      <c r="AD22" s="154" t="s">
+      <c r="AB22" s="154"/>
+      <c r="AC22" s="157"/>
+      <c r="AD22" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="AE22" s="155"/>
-      <c r="AF22" s="155"/>
-      <c r="AG22" s="155"/>
-      <c r="AH22" s="155"/>
-      <c r="AI22" s="155"/>
-      <c r="AJ22" s="155"/>
-      <c r="AK22" s="163"/>
+      <c r="AE22" s="154"/>
+      <c r="AF22" s="154"/>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="154"/>
+      <c r="AI22" s="154"/>
+      <c r="AJ22" s="154"/>
+      <c r="AK22" s="155"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
@@ -4247,42 +4251,42 @@
       <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="157" t="s">
+      <c r="F26" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="154" t="s">
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="155"/>
-      <c r="AG26" s="155"/>
-      <c r="AH26" s="155"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="155"/>
-      <c r="AK26" s="163"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="154"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="154"/>
+      <c r="X26" s="154"/>
+      <c r="Y26" s="154"/>
+      <c r="Z26" s="154"/>
+      <c r="AA26" s="154"/>
+      <c r="AB26" s="154"/>
+      <c r="AC26" s="154"/>
+      <c r="AD26" s="154"/>
+      <c r="AE26" s="154"/>
+      <c r="AF26" s="154"/>
+      <c r="AG26" s="154"/>
+      <c r="AH26" s="154"/>
+      <c r="AI26" s="154"/>
+      <c r="AJ26" s="154"/>
+      <c r="AK26" s="155"/>
     </row>
     <row r="27" spans="2:37" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4401,6 +4405,25 @@
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="V6:AK6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="L26:AK26"/>
     <mergeCell ref="AD14:AK14"/>
@@ -4417,25 +4440,6 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="V6:AK6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="X22:Z22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4463,10 +4467,10 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="169"/>
+      <c r="D4" s="164"/>
       <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
@@ -4487,10 +4491,10 @@
       <c r="B5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="171"/>
+      <c r="D5" s="166"/>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4506,18 +4510,18 @@
       <c r="J5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="127" t="s">
-        <v>389</v>
+      <c r="K5" s="126" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="165"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
@@ -4533,18 +4537,18 @@
       <c r="J6" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="K6" s="91" t="s">
-        <v>321</v>
+      <c r="K6" s="90" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="165"/>
+      <c r="D7" s="162"/>
       <c r="E7" s="7" t="s">
         <v>157</v>
       </c>
@@ -4560,20 +4564,20 @@
       <c r="J7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="91" t="s">
-        <v>322</v>
+      <c r="K7" s="90" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="164" t="s">
+      <c r="C8" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="165"/>
+      <c r="D8" s="162"/>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>118</v>
@@ -4587,18 +4591,18 @@
       <c r="J8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="91" t="s">
-        <v>402</v>
+      <c r="K8" s="90" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="164" t="s">
+      <c r="C9" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="165"/>
+      <c r="D9" s="162"/>
       <c r="E9" s="7" t="s">
         <v>158</v>
       </c>
@@ -4614,20 +4618,20 @@
       <c r="J9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="91" t="s">
-        <v>403</v>
+      <c r="K9" s="90" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="165"/>
+      <c r="D10" s="162"/>
       <c r="E10" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>120</v>
@@ -4641,18 +4645,18 @@
       <c r="J10" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="91" t="s">
-        <v>404</v>
+      <c r="K10" s="90" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="165"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="7" t="s">
         <v>160</v>
       </c>
@@ -4668,20 +4672,20 @@
       <c r="J11" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K11" s="91" t="s">
-        <v>405</v>
+      <c r="K11" s="90" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="165"/>
+      <c r="D12" s="162"/>
       <c r="E12" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>122</v>
@@ -4695,20 +4699,20 @@
       <c r="J12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K12" s="91" t="s">
-        <v>379</v>
+      <c r="K12" s="90" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="164" t="s">
+      <c r="C13" s="161" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="165"/>
+      <c r="D13" s="162"/>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>123</v>
@@ -4722,8 +4726,8 @@
       <c r="J13" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="K13" s="91" t="s">
-        <v>380</v>
+      <c r="K13" s="90" t="s">
+        <v>374</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -4731,12 +4735,12 @@
       <c r="B14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C14" s="161" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="165"/>
+      <c r="D14" s="162"/>
       <c r="E14" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>124</v>
@@ -4750,20 +4754,20 @@
       <c r="J14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K14" s="91" t="s">
-        <v>381</v>
+      <c r="K14" s="90" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="161" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="165"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>125</v>
@@ -4777,8 +4781,8 @@
       <c r="J15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="91" t="s">
-        <v>382</v>
+      <c r="K15" s="90" t="s">
+        <v>376</v>
       </c>
       <c r="O15" s="1"/>
     </row>
@@ -4786,12 +4790,12 @@
       <c r="B16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="164" t="s">
+      <c r="C16" s="161" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="165"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>126</v>
@@ -4805,20 +4809,20 @@
       <c r="J16" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="91" t="s">
-        <v>323</v>
+      <c r="K16" s="90" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C17" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="165"/>
+      <c r="D17" s="162"/>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>127</v>
@@ -4832,20 +4836,20 @@
       <c r="J17" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="91" t="s">
-        <v>324</v>
+      <c r="K17" s="90" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="164" t="s">
+      <c r="C18" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="165"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>128</v>
@@ -4859,18 +4863,18 @@
       <c r="J18" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K18" s="91" t="s">
-        <v>325</v>
+      <c r="K18" s="90" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="161" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="165"/>
+      <c r="D19" s="162"/>
       <c r="E19" s="7" t="s">
         <v>161</v>
       </c>
@@ -4886,18 +4890,18 @@
       <c r="J19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K19" s="91" t="s">
-        <v>326</v>
+      <c r="K19" s="90" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="166" t="s">
+      <c r="C20" s="167" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="167"/>
+      <c r="D20" s="168"/>
       <c r="E20" s="9" t="s">
         <v>162</v>
       </c>
@@ -4913,7 +4917,7 @@
       <c r="J20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="125" t="s">
+      <c r="K20" s="124" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4930,7 +4934,7 @@
       <c r="J21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="125" t="s">
+      <c r="K21" s="124" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4954,7 +4958,7 @@
       <c r="J22" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="125" t="s">
+      <c r="K22" s="124" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4972,7 +4976,7 @@
       <c r="J23" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K23" s="125" t="s">
+      <c r="K23" s="124" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4984,13 +4988,13 @@
         <v>188</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="K24" s="126" t="s">
-        <v>383</v>
+        <v>300</v>
+      </c>
+      <c r="K24" s="125" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -4998,16 +5002,16 @@
         <v>135</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K25" s="126" t="s">
-        <v>384</v>
+        <v>301</v>
+      </c>
+      <c r="K25" s="125" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -5023,8 +5027,8 @@
       <c r="J26" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="126" t="s">
-        <v>385</v>
+      <c r="K26" s="125" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -5032,16 +5036,16 @@
         <v>137</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="K27" s="126" t="s">
-        <v>386</v>
+      <c r="K27" s="125" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -5052,13 +5056,13 @@
         <v>173</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K28" s="126" t="s">
-        <v>387</v>
+      <c r="K28" s="125" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -5066,16 +5070,16 @@
         <v>139</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="K29" s="126" t="s">
-        <v>388</v>
+      <c r="K29" s="125" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -5091,8 +5095,8 @@
       <c r="J30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="91" t="s">
-        <v>284</v>
+      <c r="K30" s="90" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -5100,15 +5104,15 @@
         <v>141</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J31" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="91" t="s">
+      <c r="K31" s="90" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5117,16 +5121,16 @@
         <v>142</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K32" s="91" t="s">
-        <v>296</v>
+      <c r="K32" s="90" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.25">
@@ -5137,12 +5141,12 @@
         <v>254</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="91" t="s">
+      <c r="K33" s="90" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5154,13 +5158,13 @@
         <v>256</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="91" t="s">
-        <v>297</v>
+      <c r="K34" s="90" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
@@ -5168,16 +5172,16 @@
         <v>145</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K35" s="91" t="s">
-        <v>295</v>
+      <c r="K35" s="90" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5185,20 +5189,28 @@
         <v>146</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="J36" s="93" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="92" t="s">
-        <v>298</v>
+      <c r="K36" s="91" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -5208,14 +5220,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5226,8 +5230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3D4C0B-D305-42E3-A494-0FDBD834ABB7}">
   <dimension ref="D1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5237,134 +5241,134 @@
   <sheetData>
     <row r="1" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="185" t="s">
+      <c r="E2" s="187" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="188"/>
-      <c r="X2" s="194" t="s">
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="189"/>
+      <c r="O2" s="189"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="X2" s="169" t="s">
         <v>215</v>
       </c>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="195"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="195"/>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="195"/>
-      <c r="AG2" s="195"/>
-      <c r="AH2" s="195"/>
-      <c r="AI2" s="195"/>
-      <c r="AJ2" s="195"/>
-      <c r="AK2" s="195"/>
-      <c r="AL2" s="196"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="170"/>
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="170"/>
+      <c r="AI2" s="170"/>
+      <c r="AJ2" s="170"/>
+      <c r="AK2" s="170"/>
+      <c r="AL2" s="171"/>
     </row>
     <row r="3" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="86">
+      <c r="E3" s="85">
         <v>0</v>
       </c>
-      <c r="F3" s="87">
+      <c r="F3" s="86">
         <v>1</v>
       </c>
-      <c r="G3" s="87">
+      <c r="G3" s="86">
         <v>2</v>
       </c>
-      <c r="H3" s="87">
+      <c r="H3" s="86">
         <v>3</v>
       </c>
-      <c r="I3" s="87">
+      <c r="I3" s="86">
         <v>4</v>
       </c>
-      <c r="J3" s="87">
+      <c r="J3" s="86">
         <v>5</v>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="86">
         <v>6</v>
       </c>
-      <c r="L3" s="88">
+      <c r="L3" s="87">
         <v>7</v>
       </c>
-      <c r="M3" s="89">
+      <c r="M3" s="88">
         <v>8</v>
       </c>
-      <c r="N3" s="87">
+      <c r="N3" s="86">
         <v>9</v>
       </c>
-      <c r="O3" s="87" t="s">
+      <c r="O3" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="P3" s="87" t="s">
+      <c r="P3" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="Q3" s="87" t="s">
+      <c r="Q3" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="T3" s="88" t="s">
+      <c r="T3" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="X3" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="42" t="s">
+      <c r="Y3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="42" t="s">
+      <c r="Z3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="42" t="s">
+      <c r="AA3" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB3" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD3" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="AB3" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC3" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="AD3" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="AE3" s="42" t="s">
+      <c r="AE3" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="AF3" s="42" t="s">
+      <c r="AF3" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="AG3" s="42" t="s">
+      <c r="AG3" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="AH3" s="42" t="s">
+      <c r="AH3" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AI3" s="42" t="s">
+      <c r="AI3" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="AJ3" s="42" t="s">
+      <c r="AJ3" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="AK3" s="42" t="s">
+      <c r="AK3" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="AL3" s="43" t="s">
+      <c r="AL3" s="42" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5372,88 +5376,86 @@
       <c r="D4" s="33">
         <v>0</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="81" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="84" t="s">
-        <v>397</v>
-      </c>
-      <c r="M4" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="N4" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="O4" s="82"/>
-      <c r="P4" s="81" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q4" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="R4" s="82"/>
-      <c r="S4" s="123" t="s">
+      <c r="F4" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="H4" s="80" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="M4" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="N4" s="245"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q4" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="R4" s="81"/>
+      <c r="S4" s="122" t="s">
+        <v>363</v>
+      </c>
+      <c r="T4" s="84" t="s">
+        <v>392</v>
+      </c>
+      <c r="X4" s="172" t="s">
         <v>366</v>
       </c>
-      <c r="T4" s="85" t="s">
-        <v>398</v>
-      </c>
-      <c r="X4" s="197" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y4" s="199" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z4" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA4" s="203" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB4" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC4" s="203" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD4" s="203" t="s">
-        <v>375</v>
-      </c>
-      <c r="AE4" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="AF4" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="AG4" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH4" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI4" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="AJ4" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK4" s="199" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL4" s="201" t="s">
-        <v>375</v>
+      <c r="Y4" s="174" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z4" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA4" s="178" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB4" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC4" s="178" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD4" s="178" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE4" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF4" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG4" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH4" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI4" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ4" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK4" s="174" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL4" s="176" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5464,69 +5466,69 @@
         <v>204</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="36" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K5" s="29"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="79" t="s">
+      <c r="L5" s="76"/>
+      <c r="M5" s="78" t="s">
         <v>205</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P5" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="R5" s="40" t="s">
-        <v>283</v>
+      <c r="R5" s="39" t="s">
+        <v>281</v>
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="200"/>
-      <c r="Z5" s="200"/>
-      <c r="AA5" s="204"/>
-      <c r="AB5" s="200"/>
-      <c r="AC5" s="204"/>
-      <c r="AD5" s="205"/>
-      <c r="AE5" s="200"/>
-      <c r="AF5" s="200"/>
-      <c r="AG5" s="200"/>
-      <c r="AH5" s="200"/>
-      <c r="AI5" s="200"/>
-      <c r="AJ5" s="200"/>
-      <c r="AK5" s="200"/>
-      <c r="AL5" s="202"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="175"/>
+      <c r="Z5" s="175"/>
+      <c r="AA5" s="179"/>
+      <c r="AB5" s="175"/>
+      <c r="AC5" s="179"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="175"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="177"/>
     </row>
     <row r="6" spans="4:38" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="34">
         <v>2</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>399</v>
+      <c r="E6" s="242" t="s">
+        <v>404</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="G6" s="145" t="s">
-        <v>406</v>
+        <v>276</v>
+      </c>
+      <c r="G6" s="142" t="s">
+        <v>402</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>280</v>
+        <v>403</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>206</v>
@@ -5535,48 +5537,46 @@
         <v>207</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="L6" s="124" t="s">
-        <v>408</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>277</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="L6" s="123" t="s">
+        <v>399</v>
+      </c>
+      <c r="M6" s="241"/>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="129"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="128"/>
     </row>
     <row r="7" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="35">
         <v>3</v>
       </c>
-      <c r="E7" s="75" t="s">
-        <v>390</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>391</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="J7" s="76" t="s">
-        <v>328</v>
+      <c r="E7" s="74" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>325</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="90" t="s">
-        <v>278</v>
+      <c r="L7" s="77"/>
+      <c r="M7" s="89" t="s">
+        <v>277</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
@@ -5588,83 +5588,83 @@
     </row>
     <row r="8" spans="4:38" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:38" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="189" t="s">
+      <c r="E9" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="190"/>
-      <c r="G9" s="191" t="s">
+      <c r="F9" s="192"/>
+      <c r="G9" s="193" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="191"/>
-      <c r="I9" s="192" t="s">
+      <c r="H9" s="193"/>
+      <c r="I9" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="192"/>
-      <c r="K9" s="193" t="s">
+      <c r="J9" s="194"/>
+      <c r="K9" s="195" t="s">
         <v>200</v>
       </c>
-      <c r="L9" s="193"/>
-      <c r="M9" s="181" t="s">
+      <c r="L9" s="195"/>
+      <c r="M9" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="182"/>
-      <c r="O9" s="183" t="s">
+      <c r="N9" s="184"/>
+      <c r="O9" s="185" t="s">
         <v>201</v>
       </c>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="179" t="s">
+      <c r="P9" s="186"/>
+      <c r="Q9" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="R9" s="180"/>
+      <c r="R9" s="182"/>
     </row>
     <row r="10" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="86">
+      <c r="E11" s="85">
         <v>0</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="86">
         <v>1</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="86">
         <v>2</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="86">
         <v>3</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="86">
         <v>4</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="86">
         <v>5</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11" s="86">
         <v>6</v>
       </c>
-      <c r="L11" s="88">
+      <c r="L11" s="87">
         <v>7</v>
       </c>
-      <c r="M11" s="89">
+      <c r="M11" s="88">
         <v>8</v>
       </c>
-      <c r="N11" s="87">
+      <c r="N11" s="86">
         <v>9</v>
       </c>
-      <c r="O11" s="87" t="s">
+      <c r="O11" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="P11" s="87" t="s">
+      <c r="P11" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="Q11" s="87" t="s">
+      <c r="Q11" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="R11" s="87" t="s">
+      <c r="R11" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="S11" s="87" t="s">
+      <c r="S11" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="T11" s="88" t="s">
+      <c r="T11" s="87" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5672,43 +5672,42 @@
       <c r="D12" s="33">
         <v>0</v>
       </c>
-      <c r="E12" s="147" t="str">
+      <c r="E12" s="144" t="str">
         <f>+E4</f>
         <v>[JL]
 NOP</v>
       </c>
-      <c r="F12" s="131" t="str">
+      <c r="F12" s="130" t="str">
         <f t="shared" ref="F12:T12" si="0">+F4</f>
         <v>[SI]
 HALT, WAIT</v>
       </c>
-      <c r="G12" s="132">
+      <c r="G12" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="131" t="str">
-        <f t="shared" si="0"/>
-        <v>[SI]
-PSHAS
-PSHSS
-PSHS</v>
-      </c>
-      <c r="I12" s="131" t="str">
+      <c r="H12" s="244" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
-PSHI
-PSHR
-PSHP</v>
-      </c>
-      <c r="J12" s="132">
+POPAS
+POPSS
+POPS</v>
+      </c>
+      <c r="I12" s="244" t="str">
+        <f t="shared" si="0"/>
+        <v>[IR]
+POPR
+POPP</v>
+      </c>
+      <c r="J12" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="132">
+      <c r="K12" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="151" t="str">
+      <c r="L12" s="148" t="str">
         <f t="shared" si="0"/>
         <v>[AMI]
 LDMB
@@ -5716,47 +5715,48 @@
 LDMD
 LDMQ</v>
       </c>
-      <c r="M12" s="130" t="str">
+      <c r="M12" s="129" t="str">
         <f t="shared" si="0"/>
         <v>[SI]
-IN, OUT</v>
-      </c>
-      <c r="N12" s="131" t="str">
-        <f t="shared" si="0"/>
-        <v>[SI]
+IN, OUT
 CPWR, CPRR
 CPDI, CPEN
 CPCHKST
 CPCMD</v>
       </c>
-      <c r="O12" s="132">
+      <c r="N12" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="131" t="str">
+      <c r="O12" s="131">
         <f t="shared" si="0"/>
-        <v>[SI]
-POPAS
-POPSS
-POPS</v>
-      </c>
-      <c r="Q12" s="131" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="244" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
-POPR
-POPP</v>
-      </c>
-      <c r="R12" s="132">
+PSHAS
+PSHSS
+PSHS</v>
+      </c>
+      <c r="Q12" s="244" t="str">
+        <f t="shared" si="0"/>
+        <v>[IR]
+PSHI
+PSHR
+PSHP</v>
+      </c>
+      <c r="R12" s="131">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="131" t="str">
+      <c r="S12" s="130" t="str">
         <f t="shared" si="0"/>
         <v>[CDI]
 STSI, STSD
 MVSI, MVSD</v>
       </c>
-      <c r="T12" s="152" t="str">
+      <c r="T12" s="149" t="str">
         <f t="shared" si="0"/>
         <v>[AMI] #OA
 STRB
@@ -5769,27 +5769,27 @@
       <c r="D13" s="34">
         <v>1</v>
       </c>
-      <c r="E13" s="148" t="str">
+      <c r="E13" s="145" t="str">
         <f t="shared" ref="E13:T13" si="1">+E5</f>
         <v>[AMI]
 ADD, ADC
 SUB, SBB</v>
       </c>
-      <c r="F13" s="150" t="str">
+      <c r="F13" s="147" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 MUL, HMUL
 DIV, MOD</v>
       </c>
-      <c r="G13" s="135">
+      <c r="G13" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="135">
+      <c r="H13" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="150" t="str">
+      <c r="I13" s="147" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 INC, DEC, NEG
@@ -5797,50 +5797,51 @@
 MADC, MSBB,
 LDIV</v>
       </c>
-      <c r="J13" s="150" t="str">
+      <c r="J13" s="147" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 CMP, CPB</v>
       </c>
-      <c r="K13" s="135">
+      <c r="K13" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="136">
+      <c r="L13" s="135">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="148" t="str">
+      <c r="M13" s="145" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 AND, OR,
 XOR, NAND</v>
       </c>
-      <c r="N13" s="134" t="str">
+      <c r="N13" s="147" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 NOT
-STB, CLB
+SETB, CLRB,
+SWAP
 SWAPB</v>
       </c>
-      <c r="O13" s="150" t="str">
+      <c r="O13" s="147" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 TEST, BIT</v>
       </c>
-      <c r="P13" s="150" t="str">
+      <c r="P13" s="147" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 LSHF, RSHF,
 LROT, RROT</v>
       </c>
-      <c r="Q13" s="134" t="str">
+      <c r="Q13" s="133" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 FADD, FSUB
 FMUL, FDIV</v>
       </c>
-      <c r="R13" s="134" t="str">
+      <c r="R13" s="133" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 FSTEQ, FSTNE
@@ -5849,11 +5850,11 @@
 FSTEZ, FSTNZ
 FSTGZ, FSTLZ</v>
       </c>
-      <c r="S13" s="135">
+      <c r="S13" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="137">
+      <c r="T13" s="136">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5862,86 +5863,86 @@
       <c r="D14" s="34">
         <v>2</v>
       </c>
-      <c r="E14" s="148" t="str">
+      <c r="E14" s="145" t="str">
         <f t="shared" ref="E14:T14" si="2">+E6</f>
         <v>[ADI]
 JA.cc
-BA.cc</v>
-      </c>
-      <c r="F14" s="134" t="str">
-        <f t="shared" si="2"/>
-        <v>[CDI]
+BA.cc
 JR.cc
-BR.cc
-XJP.cc
-XBR.cc</v>
-      </c>
-      <c r="G14" s="144" t="str">
-        <f t="shared" si="2"/>
-        <v>[CDI]
-JRA.cc
-BRA.cc
-JRALP.cc
-BRALP.cc</v>
-      </c>
-      <c r="H14" s="134" t="str">
-        <f t="shared" si="2"/>
-        <v>[CDI]
-JRR.cc
-BRR.cc</v>
-      </c>
-      <c r="I14" s="134" t="str">
-        <f t="shared" si="2"/>
-        <v>[JL]
-JL</v>
-      </c>
-      <c r="J14" s="134" t="str">
-        <f t="shared" si="2"/>
-        <v>[JL]
-BL</v>
-      </c>
-      <c r="K14" s="134" t="str">
-        <f t="shared" si="2"/>
-        <v>[JL]
-JLP</v>
-      </c>
-      <c r="L14" s="138" t="str">
-        <f t="shared" si="2"/>
-        <v>[JL]
-BLP</v>
-      </c>
-      <c r="M14" s="133" t="str">
+BR.cc</v>
+      </c>
+      <c r="F14" s="147" t="str">
         <f t="shared" si="2"/>
         <v>[SI]
 RET, IRET
 ENTER, LEAVE
 INT</v>
       </c>
-      <c r="N14" s="135">
+      <c r="G14" s="243" t="str">
+        <f t="shared" si="2"/>
+        <v>[CDI]
+JRA.cc
+BRA.cc
+JRAP.cc
+BRAP.cc</v>
+      </c>
+      <c r="H14" s="147" t="str">
+        <f t="shared" si="2"/>
+        <v>[CDI]
+JRR.cc
+BRR.cc
+XJP.cc
+XBR.cc</v>
+      </c>
+      <c r="I14" s="147" t="str">
+        <f t="shared" si="2"/>
+        <v>[JL]
+JL</v>
+      </c>
+      <c r="J14" s="147" t="str">
+        <f t="shared" si="2"/>
+        <v>[JL]
+BL</v>
+      </c>
+      <c r="K14" s="147" t="str">
+        <f t="shared" si="2"/>
+        <v>[JL]
+JLP</v>
+      </c>
+      <c r="L14" s="240" t="str">
+        <f t="shared" si="2"/>
+        <v>[JL]
+BLP</v>
+      </c>
+      <c r="M14" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="135">
+      <c r="N14" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="135">
+      <c r="O14" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="135">
+      <c r="P14" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R14" s="135">
+      <c r="Q14" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S14" s="135">
+      <c r="R14" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="137">
+      <c r="S14" s="134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="136">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5950,13 +5951,13 @@
       <c r="D15" s="35">
         <v>3</v>
       </c>
-      <c r="E15" s="149" t="str">
+      <c r="E15" s="146" t="str">
         <f t="shared" ref="E15:T15" si="3">+E7</f>
         <v>[IR]
 MOV
 MOVI</v>
       </c>
-      <c r="F15" s="153" t="str">
+      <c r="F15" s="150" t="str">
         <f t="shared" si="3"/>
         <v>[IR]
 CVBW
@@ -5964,17 +5965,17 @@
 CVBD
 CVWDI</v>
       </c>
-      <c r="G15" s="139" t="str">
+      <c r="G15" s="137" t="str">
         <f t="shared" si="3"/>
         <v>[CDI]
 MV.cc</v>
       </c>
-      <c r="H15" s="139" t="str">
+      <c r="H15" s="137" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 XCHG</v>
       </c>
-      <c r="I15" s="153" t="str">
+      <c r="I15" s="150" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 STEQ, STNE
@@ -5984,21 +5985,21 @@
 STAE, STBE
 STEZ, STNZ...</v>
       </c>
-      <c r="J15" s="139" t="str">
+      <c r="J15" s="137" t="str">
         <f t="shared" si="3"/>
         <v>[IR]
 MVTR
 MVFR</v>
       </c>
-      <c r="K15" s="140">
+      <c r="K15" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="141">
+      <c r="L15" s="139">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="142" t="str">
+      <c r="M15" s="140" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 STC, CLC, TGC
@@ -6008,62 +6009,75 @@
 STN, CLN, TGN
 STO, CLO...</v>
       </c>
-      <c r="N15" s="140">
+      <c r="N15" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="140">
+      <c r="O15" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="140">
+      <c r="P15" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="140">
+      <c r="Q15" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="140">
+      <c r="R15" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="140">
+      <c r="S15" s="138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T15" s="143">
+      <c r="T15" s="141">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="4:38" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K16" s="146"/>
+      <c r="K16" s="143"/>
     </row>
     <row r="17" spans="5:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="175" t="s">
-        <v>392</v>
-      </c>
-      <c r="F17" s="176"/>
-      <c r="G17" s="177" t="s">
-        <v>393</v>
-      </c>
-      <c r="H17" s="177"/>
-      <c r="I17" s="178" t="s">
-        <v>394</v>
-      </c>
-      <c r="J17" s="178"/>
-      <c r="K17" s="174" t="s">
-        <v>396</v>
-      </c>
-      <c r="L17" s="174"/>
-      <c r="M17" s="172" t="s">
-        <v>395</v>
-      </c>
-      <c r="N17" s="173"/>
+      <c r="E17" s="199" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="200"/>
+      <c r="G17" s="201" t="s">
+        <v>387</v>
+      </c>
+      <c r="H17" s="201"/>
+      <c r="I17" s="202" t="s">
+        <v>388</v>
+      </c>
+      <c r="J17" s="202"/>
+      <c r="K17" s="198" t="s">
+        <v>390</v>
+      </c>
+      <c r="L17" s="198"/>
+      <c r="M17" s="196" t="s">
+        <v>389</v>
+      </c>
+      <c r="N17" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="X2:AL2"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
@@ -6080,19 +6094,6 @@
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6119,428 +6120,428 @@
   <sheetData>
     <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="68" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="4" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <v>0</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="52">
         <v>0</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="N4" s="70">
+      <c r="N4" s="69">
         <v>0</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="V4" s="209" t="s">
+      <c r="V4" s="206" t="s">
+        <v>326</v>
+      </c>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="208"/>
+    </row>
+    <row r="5" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="44">
+        <v>1</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="N5" s="71">
+        <v>1</v>
+      </c>
+      <c r="O5" s="72"/>
+      <c r="P5" s="48"/>
+      <c r="V5" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="W5" s="209" t="s">
+        <v>328</v>
+      </c>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="208"/>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C6" s="44">
+        <v>2</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="52">
+        <v>2</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="69">
+        <v>2</v>
+      </c>
+      <c r="O6" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="P6" s="73" t="s">
+        <v>331</v>
+      </c>
+      <c r="V6" s="104">
+        <v>0</v>
+      </c>
+      <c r="W6" s="210" t="s">
         <v>329</v>
       </c>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="211"/>
-    </row>
-    <row r="5" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="45">
+      <c r="X6" s="211"/>
+      <c r="Y6" s="212"/>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C7" s="44">
+        <v>3</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>257</v>
+      </c>
+      <c r="I7" s="52">
+        <v>3</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="71">
+        <v>3</v>
+      </c>
+      <c r="O7" s="72"/>
+      <c r="P7" s="48"/>
+      <c r="V7" s="105">
         <v>1</v>
       </c>
-      <c r="D5" s="65" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="100" t="s">
+      <c r="W7" s="213" t="s">
+        <v>330</v>
+      </c>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="215"/>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C8" s="44">
+        <v>4</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="52">
+        <v>4</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="N8" s="69">
+        <v>4</v>
+      </c>
+      <c r="O8" s="70"/>
+      <c r="P8" s="73"/>
+      <c r="V8" s="105">
+        <v>2</v>
+      </c>
+      <c r="W8" s="213" t="s">
+        <v>330</v>
+      </c>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="215"/>
+    </row>
+    <row r="9" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="44">
+        <v>5</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="52">
+        <v>5</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="N9" s="71">
+        <v>5</v>
+      </c>
+      <c r="O9" s="72"/>
+      <c r="P9" s="48"/>
+      <c r="V9" s="106">
+        <v>3</v>
+      </c>
+      <c r="W9" s="203" t="s">
+        <v>330</v>
+      </c>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="205"/>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C10" s="44">
+        <v>6</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
+      <c r="N10" s="69">
+        <v>6</v>
+      </c>
+      <c r="O10" s="70"/>
+      <c r="P10" s="73"/>
+    </row>
+    <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="45">
+        <v>7</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="I5" s="53">
-        <v>1</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="N5" s="72">
-        <v>1</v>
-      </c>
-      <c r="O5" s="73"/>
-      <c r="P5" s="49"/>
-      <c r="V5" s="104" t="s">
-        <v>330</v>
-      </c>
-      <c r="W5" s="212" t="s">
-        <v>331</v>
-      </c>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="211"/>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="45">
-        <v>2</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="99" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" s="53">
-        <v>2</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="N6" s="70">
-        <v>2</v>
-      </c>
-      <c r="O6" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="P6" s="74" t="s">
-        <v>334</v>
-      </c>
-      <c r="V6" s="105">
-        <v>0</v>
-      </c>
-      <c r="W6" s="213" t="s">
+      <c r="I11" s="52">
+        <v>16</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="N11" s="71">
+        <v>7</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="I12" s="52">
+        <v>17</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="N12" s="69">
+        <v>8</v>
+      </c>
+      <c r="O12" s="70"/>
+      <c r="P12" s="73"/>
+    </row>
+    <row r="13" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="54">
+        <v>18</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="N13" s="71">
+        <v>9</v>
+      </c>
+      <c r="O13" s="72"/>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="N14" s="69">
+        <v>10</v>
+      </c>
+      <c r="O14" s="70" t="s">
+        <v>271</v>
+      </c>
+      <c r="P14" s="73" t="s">
         <v>332</v>
       </c>
-      <c r="X6" s="214"/>
-      <c r="Y6" s="215"/>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="45">
-        <v>3</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" s="53">
-        <v>3</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="N7" s="72">
-        <v>3</v>
-      </c>
-      <c r="O7" s="73"/>
-      <c r="P7" s="49"/>
-      <c r="V7" s="106">
-        <v>1</v>
-      </c>
-      <c r="W7" s="216" t="s">
-        <v>333</v>
-      </c>
-      <c r="X7" s="217"/>
-      <c r="Y7" s="218"/>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="45">
-        <v>4</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="100" t="s">
-        <v>252</v>
-      </c>
-      <c r="I8" s="53">
-        <v>4</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="N8" s="70">
-        <v>4</v>
-      </c>
-      <c r="O8" s="71"/>
-      <c r="P8" s="74"/>
-      <c r="V8" s="106">
-        <v>2</v>
-      </c>
-      <c r="W8" s="216" t="s">
-        <v>333</v>
-      </c>
-      <c r="X8" s="217"/>
-      <c r="Y8" s="218"/>
-    </row>
-    <row r="9" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="45">
-        <v>5</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="I9" s="53">
-        <v>5</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="N9" s="72">
-        <v>5</v>
-      </c>
-      <c r="O9" s="73"/>
-      <c r="P9" s="49"/>
-      <c r="V9" s="107">
-        <v>3</v>
-      </c>
-      <c r="W9" s="206" t="s">
-        <v>333</v>
-      </c>
-      <c r="X9" s="207"/>
-      <c r="Y9" s="208"/>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C10" s="45">
-        <v>6</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="N10" s="70">
-        <v>6</v>
-      </c>
-      <c r="O10" s="71"/>
-      <c r="P10" s="74"/>
-    </row>
-    <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="46">
-        <v>7</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>251</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>255</v>
-      </c>
-      <c r="I11" s="53">
-        <v>16</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="N11" s="72">
-        <v>7</v>
-      </c>
-      <c r="O11" s="73" t="s">
-        <v>271</v>
-      </c>
-      <c r="P11" s="49" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="I12" s="53">
-        <v>17</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>369</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="N12" s="70">
-        <v>8</v>
-      </c>
-      <c r="O12" s="71"/>
-      <c r="P12" s="74"/>
-    </row>
-    <row r="13" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="55">
-        <v>18</v>
-      </c>
-      <c r="J13" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="N13" s="72">
-        <v>9</v>
-      </c>
-      <c r="O13" s="73"/>
-      <c r="P13" s="49"/>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N14" s="70">
-        <v>10</v>
-      </c>
-      <c r="O14" s="71" t="s">
-        <v>271</v>
-      </c>
-      <c r="P14" s="74" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N15" s="72">
+      <c r="N15" s="71">
         <v>11</v>
       </c>
-      <c r="O15" s="73"/>
-      <c r="P15" s="49"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="48"/>
     </row>
     <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N16" s="70">
+      <c r="N16" s="69">
         <v>12</v>
       </c>
-      <c r="O16" s="71"/>
-      <c r="P16" s="74"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="73"/>
     </row>
     <row r="17" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N17" s="72">
+      <c r="N17" s="71">
         <v>13</v>
       </c>
-      <c r="O17" s="73"/>
-      <c r="P17" s="49"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="48"/>
     </row>
     <row r="18" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="70">
+      <c r="N18" s="69">
         <v>14</v>
       </c>
-      <c r="O18" s="71"/>
-      <c r="P18" s="74"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="73"/>
     </row>
     <row r="19" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N19" s="72">
+      <c r="N19" s="71">
         <v>15</v>
       </c>
-      <c r="O19" s="73"/>
-      <c r="P19" s="49"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="48"/>
       <c r="R19" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="S19" s="48" t="s">
+      <c r="S19" s="47" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="20" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N20" s="70" t="s">
+      <c r="N20" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="O20" s="71" t="s">
+      <c r="O20" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="P20" s="74" t="s">
+      <c r="P20" s="73" t="s">
         <v>269</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="S20" s="49" t="s">
+      <c r="S20" s="48" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="21" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="O21" s="73" t="s">
+      <c r="O21" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="48" t="s">
         <v>270</v>
       </c>
       <c r="R21" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="S21" s="50" t="s">
+      <c r="S21" s="49" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6579,193 +6580,192 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="233" t="s">
-        <v>349</v>
-      </c>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="235"/>
+      <c r="G3" s="228" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="230"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="233" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
+      <c r="G4" s="109" t="s">
+        <v>347</v>
+      </c>
+      <c r="H4" s="226" t="s">
+        <v>334</v>
+      </c>
+      <c r="I4" s="227"/>
+      <c r="J4" s="226" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="227"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="119" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="110" t="s">
+        <v>337</v>
+      </c>
+      <c r="H5" s="239" t="s">
+        <v>351</v>
+      </c>
+      <c r="I5" s="212"/>
+      <c r="J5" s="232" t="s">
+        <v>348</v>
+      </c>
+      <c r="K5" s="212"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="216" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="220" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="220"/>
+      <c r="E6" s="221"/>
+      <c r="G6" s="111" t="s">
+        <v>338</v>
+      </c>
+      <c r="H6" s="231" t="s">
+        <v>358</v>
+      </c>
+      <c r="I6" s="215"/>
+      <c r="J6" s="114" t="s">
+        <v>348</v>
+      </c>
+      <c r="K6" s="107" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="217"/>
+      <c r="C7" s="214" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" s="214"/>
+      <c r="E7" s="215"/>
+      <c r="G7" s="111" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
-      <c r="G4" s="110" t="s">
+      <c r="H7" s="231" t="s">
+        <v>358</v>
+      </c>
+      <c r="I7" s="215"/>
+      <c r="J7" s="231" t="s">
+        <v>348</v>
+      </c>
+      <c r="K7" s="215"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="217"/>
+      <c r="C8" s="214" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="214"/>
+      <c r="E8" s="215"/>
+      <c r="G8" s="111" t="s">
+        <v>340</v>
+      </c>
+      <c r="H8" s="237" t="s">
         <v>350</v>
       </c>
-      <c r="H4" s="231" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4" s="232"/>
-      <c r="J4" s="231" t="s">
-        <v>338</v>
-      </c>
-      <c r="K4" s="232"/>
-    </row>
-    <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="120" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="121" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="122" t="s">
-        <v>338</v>
-      </c>
-      <c r="G5" s="111" t="s">
-        <v>340</v>
-      </c>
-      <c r="H5" s="226" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="215"/>
-      <c r="J5" s="236" t="s">
-        <v>351</v>
-      </c>
-      <c r="K5" s="215"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="237" t="s">
+      <c r="I8" s="238"/>
+      <c r="J8" s="231" t="s">
+        <v>348</v>
+      </c>
+      <c r="K8" s="215"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="218"/>
+      <c r="C9" s="204" t="s">
         <v>356</v>
       </c>
-      <c r="C6" s="241" t="s">
-        <v>357</v>
-      </c>
-      <c r="D6" s="241"/>
-      <c r="E6" s="242"/>
-      <c r="G6" s="112" t="s">
+      <c r="D9" s="204"/>
+      <c r="E9" s="205"/>
+      <c r="G9" s="111" t="s">
         <v>341</v>
       </c>
-      <c r="H6" s="225" t="s">
-        <v>361</v>
-      </c>
-      <c r="I6" s="218"/>
-      <c r="J6" s="115" t="s">
-        <v>351</v>
-      </c>
-      <c r="K6" s="108" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="238"/>
-      <c r="C7" s="217" t="s">
-        <v>360</v>
-      </c>
-      <c r="D7" s="217"/>
-      <c r="E7" s="218"/>
-      <c r="G7" s="112" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" s="225" t="s">
-        <v>361</v>
-      </c>
-      <c r="I7" s="218"/>
-      <c r="J7" s="225" t="s">
-        <v>351</v>
-      </c>
-      <c r="K7" s="218"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="238"/>
-      <c r="C8" s="217" t="s">
+      <c r="H9" s="113" t="s">
+        <v>350</v>
+      </c>
+      <c r="I9" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="217"/>
-      <c r="E8" s="218"/>
-      <c r="G8" s="112" t="s">
-        <v>343</v>
-      </c>
-      <c r="H8" s="223" t="s">
-        <v>353</v>
-      </c>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225" t="s">
-        <v>351</v>
-      </c>
-      <c r="K8" s="218"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="239"/>
-      <c r="C9" s="207" t="s">
-        <v>359</v>
-      </c>
-      <c r="D9" s="207"/>
-      <c r="E9" s="208"/>
-      <c r="G9" s="112" t="s">
-        <v>344</v>
-      </c>
-      <c r="H9" s="114" t="s">
-        <v>353</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>361</v>
-      </c>
-      <c r="J9" s="225" t="s">
-        <v>351</v>
-      </c>
-      <c r="K9" s="218"/>
+      <c r="J9" s="231" t="s">
+        <v>348</v>
+      </c>
+      <c r="K9" s="215"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="222" t="s">
+      <c r="H10" s="236" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="208"/>
-      <c r="J10" s="240" t="s">
-        <v>351</v>
-      </c>
-      <c r="K10" s="208"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="219" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" s="205"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="117" t="s">
-        <v>354</v>
-      </c>
-      <c r="H12" s="116" t="s">
-        <v>362</v>
-      </c>
-      <c r="I12" s="109" t="s">
+      <c r="G12" s="116" t="s">
+        <v>351</v>
+      </c>
+      <c r="H12" s="115" t="s">
+        <v>359</v>
+      </c>
+      <c r="I12" s="108" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K12" s="93" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" s="224" t="s">
         <v>345</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K12" s="94" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="118" t="s">
-        <v>355</v>
-      </c>
-      <c r="H13" s="229" t="s">
-        <v>348</v>
-      </c>
-      <c r="I13" s="230"/>
+      <c r="I13" s="225"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="119" t="s">
-        <v>353</v>
-      </c>
-      <c r="H14" s="227" t="s">
-        <v>352</v>
-      </c>
-      <c r="I14" s="228"/>
+      <c r="G14" s="118" t="s">
+        <v>350</v>
+      </c>
+      <c r="H14" s="222" t="s">
+        <v>349</v>
+      </c>
+      <c r="I14" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H4:I4"/>
@@ -6776,11 +6776,12 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs.xlsx
+++ b/docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\MeusProjetos\Limp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E7DA7-AA6F-40AA-A08D-BF9D075A7BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA2DE84-BED8-4D16-BA6F-D2D40FDD943B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="412">
   <si>
     <t>Base Opcode</t>
   </si>
@@ -882,10 +882,6 @@
   <si>
     <t>[SI]
 XCHG</t>
-  </si>
-  <si>
-    <t>[SI]
-HALT, WAIT</t>
   </si>
   <si>
     <t>[SI]
@@ -1064,11 +1060,6 @@
     <t>!Z&amp;N</t>
   </si>
   <si>
-    <t>[IR]
-MVTR
-MVFR</t>
-  </si>
-  <si>
     <t>Coprocessors</t>
   </si>
   <si>
@@ -1181,11 +1172,6 @@
   <si>
     <t>[AMI]
 TEST, BIT</t>
-  </si>
-  <si>
-    <t>[CDI]
-STSI, STSD
-MVSI, MVSD</t>
   </si>
   <si>
     <t>PM</t>
@@ -1367,18 +1353,44 @@
   </si>
   <si>
     <t>[SI]
-IN, OUT
-CPWR, CPRR
-CPDI, CPEN
-CPCHKST
-CPCMD</t>
-  </si>
-  <si>
-    <t>[SI]
 NOT
 SETB, CLRB,
 SWAP
 SWAPB</t>
+  </si>
+  <si>
+    <t>[IR]
+MVFR
+MVTR</t>
+  </si>
+  <si>
+    <t>[SI]
+HALT
+WAIT, WAITI WAITR</t>
+  </si>
+  <si>
+    <t>24..31</t>
+  </si>
+  <si>
+    <t>Current Interruption</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>[SI]
+IN, OUT
+CPRR, CPWR
+CPDI, CPEN
+CPCHKST
+CPCMD</t>
+  </si>
+  <si>
+    <t>[CDI]
+STSI.cc
+STSD.cc
+MMSI.cc
+MMSD.cc</t>
   </si>
 </sst>
 </file>
@@ -2666,9 +2678,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2679,9 +2688,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2691,17 +2697,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2732,42 +2732,66 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2780,11 +2804,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2822,72 +2906,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2927,6 +2945,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2945,76 +3017,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3333,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010DB54F-0064-4558-AEAA-353B181D2777}">
   <dimension ref="B5:AK43"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView topLeftCell="C5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,50 +3467,50 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="151" t="s">
+      <c r="F6" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152" t="s">
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="152"/>
+      <c r="M6" s="157"/>
       <c r="N6" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="157"/>
-      <c r="P6" s="158" t="s">
+      <c r="O6" s="155"/>
+      <c r="P6" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="160"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="161"/>
       <c r="S6" s="153" t="s">
         <v>4</v>
       </c>
       <c r="T6" s="154"/>
-      <c r="U6" s="157"/>
-      <c r="V6" s="152" t="s">
+      <c r="U6" s="155"/>
+      <c r="V6" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="152"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="152"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="152"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="152"/>
-      <c r="AK6" s="156"/>
+      <c r="W6" s="157"/>
+      <c r="X6" s="157"/>
+      <c r="Y6" s="157"/>
+      <c r="Z6" s="157"/>
+      <c r="AA6" s="157"/>
+      <c r="AB6" s="157"/>
+      <c r="AC6" s="157"/>
+      <c r="AD6" s="157"/>
+      <c r="AE6" s="157"/>
+      <c r="AF6" s="157"/>
+      <c r="AG6" s="157"/>
+      <c r="AH6" s="157"/>
+      <c r="AI6" s="157"/>
+      <c r="AJ6" s="157"/>
+      <c r="AK6" s="158"/>
     </row>
     <row r="7" spans="3:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -3612,28 +3624,28 @@
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="151" t="s">
+      <c r="F10" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152" t="s">
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="152"/>
+      <c r="M10" s="157"/>
       <c r="N10" s="153" t="s">
         <v>5</v>
       </c>
       <c r="O10" s="154"/>
       <c r="P10" s="154"/>
-      <c r="Q10" s="157"/>
+      <c r="Q10" s="155"/>
       <c r="R10" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="S10" s="157"/>
+      <c r="S10" s="155"/>
       <c r="T10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3641,27 +3653,27 @@
         <v>3</v>
       </c>
       <c r="V10" s="154"/>
-      <c r="W10" s="157"/>
+      <c r="W10" s="155"/>
       <c r="X10" s="153" t="s">
         <v>10</v>
       </c>
       <c r="Y10" s="154"/>
-      <c r="Z10" s="157"/>
+      <c r="Z10" s="155"/>
       <c r="AA10" s="153" t="s">
         <v>4</v>
       </c>
       <c r="AB10" s="154"/>
-      <c r="AC10" s="157"/>
-      <c r="AD10" s="152" t="s">
+      <c r="AC10" s="155"/>
+      <c r="AD10" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="152"/>
-      <c r="AJ10" s="152"/>
-      <c r="AK10" s="156"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="157"/>
+      <c r="AH10" s="157"/>
+      <c r="AI10" s="157"/>
+      <c r="AJ10" s="157"/>
+      <c r="AK10" s="158"/>
     </row>
     <row r="11" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
@@ -3775,18 +3787,18 @@
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="151" t="s">
+      <c r="F14" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
       <c r="L14" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="157"/>
+      <c r="M14" s="155"/>
       <c r="N14" s="153" t="s">
         <v>13</v>
       </c>
@@ -3794,7 +3806,7 @@
       <c r="P14" s="154"/>
       <c r="Q14" s="154"/>
       <c r="R14" s="154"/>
-      <c r="S14" s="157"/>
+      <c r="S14" s="155"/>
       <c r="T14" s="2" t="s">
         <v>12</v>
       </c>
@@ -3802,27 +3814,27 @@
         <v>3</v>
       </c>
       <c r="V14" s="154"/>
-      <c r="W14" s="157"/>
+      <c r="W14" s="155"/>
       <c r="X14" s="153" t="s">
         <v>112</v>
       </c>
       <c r="Y14" s="154"/>
-      <c r="Z14" s="157"/>
+      <c r="Z14" s="155"/>
       <c r="AA14" s="153" t="s">
         <v>4</v>
       </c>
       <c r="AB14" s="154"/>
-      <c r="AC14" s="157"/>
-      <c r="AD14" s="152" t="s">
+      <c r="AC14" s="155"/>
+      <c r="AD14" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="156"/>
+      <c r="AE14" s="157"/>
+      <c r="AF14" s="157"/>
+      <c r="AG14" s="157"/>
+      <c r="AH14" s="157"/>
+      <c r="AI14" s="157"/>
+      <c r="AJ14" s="157"/>
+      <c r="AK14" s="158"/>
     </row>
     <row r="15" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
@@ -3936,48 +3948,48 @@
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="151" t="s">
+      <c r="F18" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152" t="s">
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="152"/>
+      <c r="M18" s="157"/>
       <c r="N18" s="153" t="s">
         <v>14</v>
       </c>
       <c r="O18" s="154"/>
       <c r="P18" s="154"/>
       <c r="Q18" s="154"/>
-      <c r="R18" s="157"/>
+      <c r="R18" s="155"/>
       <c r="S18" s="153" t="s">
         <v>21</v>
       </c>
       <c r="T18" s="154"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="152" t="s">
+      <c r="U18" s="155"/>
+      <c r="V18" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="152"/>
-      <c r="X18" s="152"/>
-      <c r="Y18" s="152"/>
-      <c r="Z18" s="152"/>
-      <c r="AA18" s="152"/>
-      <c r="AB18" s="152"/>
-      <c r="AC18" s="152"/>
-      <c r="AD18" s="152"/>
-      <c r="AE18" s="152"/>
-      <c r="AF18" s="152"/>
-      <c r="AG18" s="152"/>
-      <c r="AH18" s="152"/>
-      <c r="AI18" s="152"/>
-      <c r="AJ18" s="152"/>
-      <c r="AK18" s="156"/>
+      <c r="W18" s="157"/>
+      <c r="X18" s="157"/>
+      <c r="Y18" s="157"/>
+      <c r="Z18" s="157"/>
+      <c r="AA18" s="157"/>
+      <c r="AB18" s="157"/>
+      <c r="AC18" s="157"/>
+      <c r="AD18" s="157"/>
+      <c r="AE18" s="157"/>
+      <c r="AF18" s="157"/>
+      <c r="AG18" s="157"/>
+      <c r="AH18" s="157"/>
+      <c r="AI18" s="157"/>
+      <c r="AJ18" s="157"/>
+      <c r="AK18" s="158"/>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
@@ -4091,25 +4103,25 @@
       <c r="E22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F22" s="151" t="s">
+      <c r="F22" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152" t="s">
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="152"/>
+      <c r="M22" s="157"/>
       <c r="N22" s="153" t="s">
         <v>14</v>
       </c>
       <c r="O22" s="154"/>
       <c r="P22" s="154"/>
       <c r="Q22" s="154"/>
-      <c r="R22" s="157"/>
+      <c r="R22" s="155"/>
       <c r="S22" s="2">
         <v>1</v>
       </c>
@@ -4120,17 +4132,17 @@
         <v>3</v>
       </c>
       <c r="V22" s="154"/>
-      <c r="W22" s="157"/>
+      <c r="W22" s="155"/>
       <c r="X22" s="153" t="s">
         <v>21</v>
       </c>
       <c r="Y22" s="154"/>
-      <c r="Z22" s="157"/>
+      <c r="Z22" s="155"/>
       <c r="AA22" s="153" t="s">
         <v>4</v>
       </c>
       <c r="AB22" s="154"/>
-      <c r="AC22" s="157"/>
+      <c r="AC22" s="155"/>
       <c r="AD22" s="153" t="s">
         <v>6</v>
       </c>
@@ -4140,7 +4152,7 @@
       <c r="AH22" s="154"/>
       <c r="AI22" s="154"/>
       <c r="AJ22" s="154"/>
-      <c r="AK22" s="155"/>
+      <c r="AK22" s="162"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
@@ -4251,14 +4263,14 @@
       <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="151" t="s">
+      <c r="F26" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
       <c r="L26" s="153" t="s">
         <v>15</v>
       </c>
@@ -4286,7 +4298,7 @@
       <c r="AH26" s="154"/>
       <c r="AI26" s="154"/>
       <c r="AJ26" s="154"/>
-      <c r="AK26" s="155"/>
+      <c r="AK26" s="162"/>
     </row>
     <row r="27" spans="2:37" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4405,25 +4417,6 @@
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="V6:AK6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="U10:W10"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="L26:AK26"/>
     <mergeCell ref="AD14:AK14"/>
@@ -4440,6 +4433,25 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="V6:AK6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="X22:Z22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4467,10 +4479,10 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="164"/>
+      <c r="D4" s="168"/>
       <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
@@ -4491,10 +4503,10 @@
       <c r="B5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="166"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4511,17 +4523,17 @@
         <v>74</v>
       </c>
       <c r="K5" s="126" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="164"/>
       <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
@@ -4538,17 +4550,17 @@
         <v>174</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="162"/>
+      <c r="D7" s="164"/>
       <c r="E7" s="7" t="s">
         <v>157</v>
       </c>
@@ -4565,19 +4577,19 @@
         <v>175</v>
       </c>
       <c r="K7" s="90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="162"/>
+      <c r="D8" s="164"/>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>118</v>
@@ -4592,17 +4604,17 @@
         <v>176</v>
       </c>
       <c r="K8" s="90" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="162"/>
+      <c r="D9" s="164"/>
       <c r="E9" s="7" t="s">
         <v>158</v>
       </c>
@@ -4619,19 +4631,19 @@
         <v>177</v>
       </c>
       <c r="K9" s="90" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="162"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>120</v>
@@ -4646,17 +4658,17 @@
         <v>178</v>
       </c>
       <c r="K10" s="90" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="7" t="s">
         <v>160</v>
       </c>
@@ -4673,19 +4685,19 @@
         <v>179</v>
       </c>
       <c r="K11" s="90" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="162"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>122</v>
@@ -4700,19 +4712,19 @@
         <v>180</v>
       </c>
       <c r="K12" s="90" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="162"/>
+      <c r="D13" s="164"/>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>123</v>
@@ -4727,7 +4739,7 @@
         <v>181</v>
       </c>
       <c r="K13" s="90" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -4735,12 +4747,12 @@
       <c r="B14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="162"/>
+      <c r="D14" s="164"/>
       <c r="E14" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>124</v>
@@ -4755,19 +4767,19 @@
         <v>182</v>
       </c>
       <c r="K14" s="90" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="161" t="s">
+      <c r="C15" s="163" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="162"/>
+      <c r="D15" s="164"/>
       <c r="E15" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>125</v>
@@ -4782,7 +4794,7 @@
         <v>183</v>
       </c>
       <c r="K15" s="90" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O15" s="1"/>
     </row>
@@ -4790,12 +4802,12 @@
       <c r="B16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="163" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="162"/>
+      <c r="D16" s="164"/>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>126</v>
@@ -4810,19 +4822,19 @@
         <v>184</v>
       </c>
       <c r="K16" s="90" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="163" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="162"/>
+      <c r="D17" s="164"/>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>127</v>
@@ -4837,19 +4849,19 @@
         <v>185</v>
       </c>
       <c r="K17" s="90" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="162"/>
+      <c r="D18" s="164"/>
       <c r="E18" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>128</v>
@@ -4864,17 +4876,17 @@
         <v>186</v>
       </c>
       <c r="K18" s="90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="161" t="s">
+      <c r="C19" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="162"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="7" t="s">
         <v>161</v>
       </c>
@@ -4891,17 +4903,17 @@
         <v>187</v>
       </c>
       <c r="K19" s="90" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="167" t="s">
+      <c r="C20" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="168"/>
+      <c r="D20" s="166"/>
       <c r="E20" s="9" t="s">
         <v>162</v>
       </c>
@@ -4988,13 +5000,13 @@
         <v>188</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="K24" s="125" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -5002,16 +5014,16 @@
         <v>135</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="J25" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K25" s="125" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -5028,7 +5040,7 @@
         <v>191</v>
       </c>
       <c r="K26" s="125" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -5036,16 +5048,16 @@
         <v>137</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>304</v>
-      </c>
       <c r="K27" s="125" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -5056,13 +5068,13 @@
         <v>173</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K28" s="125" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -5070,16 +5082,16 @@
         <v>139</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K29" s="125" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -5096,7 +5108,7 @@
         <v>74</v>
       </c>
       <c r="K30" s="90" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -5104,10 +5116,10 @@
         <v>141</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J31" s="17" t="s">
         <v>74</v>
@@ -5121,16 +5133,16 @@
         <v>142</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>74</v>
       </c>
       <c r="K32" s="90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.25">
@@ -5141,7 +5153,7 @@
         <v>254</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>74</v>
@@ -5158,13 +5170,13 @@
         <v>256</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>74</v>
       </c>
       <c r="K34" s="90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
@@ -5172,16 +5184,16 @@
         <v>145</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>74</v>
       </c>
       <c r="K35" s="90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5189,28 +5201,20 @@
         <v>146</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J36" s="92" t="s">
         <v>74</v>
       </c>
       <c r="K36" s="91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -5220,6 +5224,14 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5231,7 +5243,7 @@
   <dimension ref="D1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="84.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5241,41 +5253,41 @@
   <sheetData>
     <row r="1" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="X2" s="169" t="s">
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="187"/>
+      <c r="X2" s="193" t="s">
         <v>215</v>
       </c>
-      <c r="Y2" s="170"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="170"/>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="170"/>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="170"/>
-      <c r="AH2" s="170"/>
-      <c r="AI2" s="170"/>
-      <c r="AJ2" s="170"/>
-      <c r="AK2" s="170"/>
-      <c r="AL2" s="171"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194"/>
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="194"/>
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="194"/>
+      <c r="AL2" s="195"/>
     </row>
     <row r="3" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="85">
@@ -5336,16 +5348,16 @@
         <v>50</v>
       </c>
       <c r="AA3" s="41" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AB3" s="41" t="s">
         <v>51</v>
       </c>
       <c r="AC3" s="41" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AD3" s="41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AE3" s="41" t="s">
         <v>105</v>
@@ -5380,82 +5392,82 @@
         <v>272</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="80" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I4" s="82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="83" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M4" s="79" t="s">
-        <v>407</v>
-      </c>
-      <c r="N4" s="245"/>
+        <v>410</v>
+      </c>
+      <c r="N4" s="152"/>
       <c r="O4" s="81"/>
       <c r="P4" s="80" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R4" s="81"/>
       <c r="S4" s="122" t="s">
+        <v>411</v>
+      </c>
+      <c r="T4" s="84" t="s">
+        <v>389</v>
+      </c>
+      <c r="X4" s="196" t="s">
         <v>363</v>
       </c>
-      <c r="T4" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="X4" s="172" t="s">
+      <c r="Y4" s="198" t="s">
         <v>366</v>
       </c>
-      <c r="Y4" s="174" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z4" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA4" s="178" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB4" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC4" s="178" t="s">
-        <v>370</v>
-      </c>
-      <c r="AD4" s="178" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE4" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF4" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="AG4" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH4" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="AI4" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="AJ4" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="AK4" s="174" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL4" s="176" t="s">
-        <v>370</v>
+      <c r="Z4" s="198" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA4" s="202" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB4" s="198" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC4" s="202" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD4" s="202" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE4" s="198" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF4" s="198" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG4" s="198" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH4" s="198" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI4" s="198" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ4" s="198" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK4" s="198" t="s">
+        <v>367</v>
+      </c>
+      <c r="AL4" s="200" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5466,15 +5478,15 @@
         <v>204</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="36" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="76"/>
@@ -5482,10 +5494,10 @@
         <v>205</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P5" s="37" t="s">
         <v>210</v>
@@ -5494,41 +5506,41 @@
         <v>208</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="175"/>
-      <c r="Z5" s="175"/>
-      <c r="AA5" s="179"/>
-      <c r="AB5" s="175"/>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="180"/>
-      <c r="AE5" s="175"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="175"/>
-      <c r="AH5" s="175"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="175"/>
-      <c r="AK5" s="175"/>
-      <c r="AL5" s="177"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="199"/>
+      <c r="Z5" s="199"/>
+      <c r="AA5" s="203"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="204"/>
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
+      <c r="AH5" s="199"/>
+      <c r="AI5" s="199"/>
+      <c r="AJ5" s="199"/>
+      <c r="AK5" s="199"/>
+      <c r="AL5" s="201"/>
     </row>
     <row r="6" spans="4:38" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="34">
         <v>2</v>
       </c>
-      <c r="E6" s="242" t="s">
-        <v>404</v>
+      <c r="E6" s="149" t="s">
+        <v>401</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="142" t="s">
-        <v>402</v>
+        <v>275</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>399</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>206</v>
@@ -5537,12 +5549,12 @@
         <v>207</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L6" s="123" t="s">
-        <v>399</v>
-      </c>
-      <c r="M6" s="241"/>
+        <v>396</v>
+      </c>
+      <c r="M6" s="148"/>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
@@ -5556,27 +5568,27 @@
         <v>3</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H7" s="75" t="s">
         <v>273</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J7" s="75" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="77"/>
       <c r="M7" s="89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
@@ -5588,34 +5600,34 @@
     </row>
     <row r="8" spans="4:38" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:38" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="191" t="s">
+      <c r="E9" s="188" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="192"/>
-      <c r="G9" s="193" t="s">
+      <c r="F9" s="189"/>
+      <c r="G9" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="193"/>
-      <c r="I9" s="194" t="s">
+      <c r="H9" s="190"/>
+      <c r="I9" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="194"/>
-      <c r="K9" s="195" t="s">
+      <c r="J9" s="191"/>
+      <c r="K9" s="192" t="s">
         <v>200</v>
       </c>
-      <c r="L9" s="195"/>
-      <c r="M9" s="183" t="s">
+      <c r="L9" s="192"/>
+      <c r="M9" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="184"/>
-      <c r="O9" s="185" t="s">
+      <c r="N9" s="181"/>
+      <c r="O9" s="182" t="s">
         <v>201</v>
       </c>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="181" t="s">
+      <c r="P9" s="183"/>
+      <c r="Q9" s="178" t="s">
         <v>202</v>
       </c>
-      <c r="R9" s="182"/>
+      <c r="R9" s="179"/>
     </row>
     <row r="10" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5672,42 +5684,43 @@
       <c r="D12" s="33">
         <v>0</v>
       </c>
-      <c r="E12" s="144" t="str">
+      <c r="E12" s="140" t="str">
         <f>+E4</f>
         <v>[JL]
 NOP</v>
       </c>
-      <c r="F12" s="130" t="str">
+      <c r="F12" s="151" t="str">
         <f t="shared" ref="F12:T12" si="0">+F4</f>
         <v>[SI]
-HALT, WAIT</v>
-      </c>
-      <c r="G12" s="131">
+HALT
+WAIT, WAITI WAITR</v>
+      </c>
+      <c r="G12" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="244" t="str">
+      <c r="H12" s="151" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
 POPAS
 POPSS
 POPS</v>
       </c>
-      <c r="I12" s="244" t="str">
+      <c r="I12" s="151" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
 POPR
 POPP</v>
       </c>
-      <c r="J12" s="131">
+      <c r="J12" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="131">
+      <c r="K12" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="148" t="str">
+      <c r="L12" s="144" t="str">
         <f t="shared" si="0"/>
         <v>[AMI]
 LDMB
@@ -5715,48 +5728,50 @@
 LDMD
 LDMQ</v>
       </c>
-      <c r="M12" s="129" t="str">
+      <c r="M12" s="245" t="str">
         <f t="shared" si="0"/>
         <v>[SI]
 IN, OUT
-CPWR, CPRR
+CPRR, CPWR
 CPDI, CPEN
 CPCHKST
 CPCMD</v>
       </c>
-      <c r="N12" s="130">
+      <c r="N12" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="131">
+      <c r="O12" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="244" t="str">
+      <c r="P12" s="151" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
 PSHAS
 PSHSS
 PSHS</v>
       </c>
-      <c r="Q12" s="244" t="str">
+      <c r="Q12" s="151" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
 PSHI
 PSHR
 PSHP</v>
       </c>
-      <c r="R12" s="131">
+      <c r="R12" s="130">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="130" t="str">
+      <c r="S12" s="151" t="str">
         <f t="shared" si="0"/>
         <v>[CDI]
-STSI, STSD
-MVSI, MVSD</v>
-      </c>
-      <c r="T12" s="149" t="str">
+STSI.cc
+STSD.cc
+MMSI.cc
+MMSD.cc</v>
+      </c>
+      <c r="T12" s="145" t="str">
         <f t="shared" si="0"/>
         <v>[AMI] #OA
 STRB
@@ -5769,27 +5784,27 @@
       <c r="D13" s="34">
         <v>1</v>
       </c>
-      <c r="E13" s="145" t="str">
+      <c r="E13" s="141" t="str">
         <f t="shared" ref="E13:T13" si="1">+E5</f>
         <v>[AMI]
 ADD, ADC
 SUB, SBB</v>
       </c>
-      <c r="F13" s="147" t="str">
+      <c r="F13" s="143" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 MUL, HMUL
 DIV, MOD</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="134">
+      <c r="H13" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="147" t="str">
+      <c r="I13" s="143" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 INC, DEC, NEG
@@ -5797,26 +5812,26 @@
 MADC, MSBB,
 LDIV</v>
       </c>
-      <c r="J13" s="147" t="str">
+      <c r="J13" s="143" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 CMP, CPB</v>
       </c>
-      <c r="K13" s="134">
+      <c r="K13" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="135">
+      <c r="L13" s="133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="145" t="str">
+      <c r="M13" s="141" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 AND, OR,
 XOR, NAND</v>
       </c>
-      <c r="N13" s="147" t="str">
+      <c r="N13" s="143" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 NOT
@@ -5824,24 +5839,24 @@
 SWAP
 SWAPB</v>
       </c>
-      <c r="O13" s="147" t="str">
+      <c r="O13" s="143" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 TEST, BIT</v>
       </c>
-      <c r="P13" s="147" t="str">
+      <c r="P13" s="143" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 LSHF, RSHF,
 LROT, RROT</v>
       </c>
-      <c r="Q13" s="133" t="str">
+      <c r="Q13" s="143" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 FADD, FSUB
 FMUL, FDIV</v>
       </c>
-      <c r="R13" s="133" t="str">
+      <c r="R13" s="143" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 FSTEQ, FSTNE
@@ -5850,11 +5865,11 @@
 FSTEZ, FSTNZ
 FSTGZ, FSTLZ</v>
       </c>
-      <c r="S13" s="134">
+      <c r="S13" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="136">
+      <c r="T13" s="134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5863,7 +5878,7 @@
       <c r="D14" s="34">
         <v>2</v>
       </c>
-      <c r="E14" s="145" t="str">
+      <c r="E14" s="141" t="str">
         <f t="shared" ref="E14:T14" si="2">+E6</f>
         <v>[ADI]
 JA.cc
@@ -5871,14 +5886,14 @@
 JR.cc
 BR.cc</v>
       </c>
-      <c r="F14" s="147" t="str">
+      <c r="F14" s="143" t="str">
         <f t="shared" si="2"/>
         <v>[SI]
 RET, IRET
 ENTER, LEAVE
 INT</v>
       </c>
-      <c r="G14" s="243" t="str">
+      <c r="G14" s="150" t="str">
         <f t="shared" si="2"/>
         <v>[CDI]
 JRA.cc
@@ -5886,7 +5901,7 @@
 JRAP.cc
 BRAP.cc</v>
       </c>
-      <c r="H14" s="147" t="str">
+      <c r="H14" s="143" t="str">
         <f t="shared" si="2"/>
         <v>[CDI]
 JRR.cc
@@ -5894,55 +5909,55 @@
 XJP.cc
 XBR.cc</v>
       </c>
-      <c r="I14" s="147" t="str">
+      <c r="I14" s="143" t="str">
         <f t="shared" si="2"/>
         <v>[JL]
 JL</v>
       </c>
-      <c r="J14" s="147" t="str">
+      <c r="J14" s="143" t="str">
         <f t="shared" si="2"/>
         <v>[JL]
 BL</v>
       </c>
-      <c r="K14" s="147" t="str">
+      <c r="K14" s="143" t="str">
         <f t="shared" si="2"/>
         <v>[JL]
 JLP</v>
       </c>
-      <c r="L14" s="240" t="str">
+      <c r="L14" s="147" t="str">
         <f t="shared" si="2"/>
         <v>[JL]
 BLP</v>
       </c>
-      <c r="M14" s="132">
+      <c r="M14" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="134">
+      <c r="N14" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="134">
+      <c r="O14" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="134">
+      <c r="P14" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="134">
+      <c r="Q14" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R14" s="134">
+      <c r="R14" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S14" s="134">
+      <c r="S14" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="136">
+      <c r="T14" s="134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5951,13 +5966,13 @@
       <c r="D15" s="35">
         <v>3</v>
       </c>
-      <c r="E15" s="146" t="str">
+      <c r="E15" s="142" t="str">
         <f t="shared" ref="E15:T15" si="3">+E7</f>
         <v>[IR]
 MOV
 MOVI</v>
       </c>
-      <c r="F15" s="150" t="str">
+      <c r="F15" s="146" t="str">
         <f t="shared" si="3"/>
         <v>[IR]
 CVBW
@@ -5965,17 +5980,17 @@
 CVBD
 CVWDI</v>
       </c>
-      <c r="G15" s="137" t="str">
+      <c r="G15" s="146" t="str">
         <f t="shared" si="3"/>
         <v>[CDI]
 MV.cc</v>
       </c>
-      <c r="H15" s="137" t="str">
+      <c r="H15" s="146" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 XCHG</v>
       </c>
-      <c r="I15" s="150" t="str">
+      <c r="I15" s="146" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 STEQ, STNE
@@ -5985,21 +6000,21 @@
 STAE, STBE
 STEZ, STNZ...</v>
       </c>
-      <c r="J15" s="137" t="str">
+      <c r="J15" s="146" t="str">
         <f t="shared" si="3"/>
         <v>[IR]
-MVTR
-MVFR</v>
-      </c>
-      <c r="K15" s="138">
+MVFR
+MVTR</v>
+      </c>
+      <c r="K15" s="135">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="139">
+      <c r="L15" s="136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="140" t="str">
+      <c r="M15" s="142" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 STC, CLC, TGC
@@ -6009,75 +6024,62 @@
 STN, CLN, TGN
 STO, CLO...</v>
       </c>
-      <c r="N15" s="138">
+      <c r="N15" s="135">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="138">
+      <c r="O15" s="135">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="138">
+      <c r="P15" s="135">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="138">
+      <c r="Q15" s="135">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="138">
+      <c r="R15" s="135">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="138">
+      <c r="S15" s="135">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T15" s="141">
+      <c r="T15" s="137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="4:38" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K16" s="143"/>
+      <c r="K16" s="139"/>
     </row>
     <row r="17" spans="5:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="199" t="s">
+      <c r="E17" s="174" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="175"/>
+      <c r="G17" s="176" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="176"/>
+      <c r="I17" s="177" t="s">
+        <v>385</v>
+      </c>
+      <c r="J17" s="177"/>
+      <c r="K17" s="173" t="s">
+        <v>387</v>
+      </c>
+      <c r="L17" s="173"/>
+      <c r="M17" s="171" t="s">
         <v>386</v>
       </c>
-      <c r="F17" s="200"/>
-      <c r="G17" s="201" t="s">
-        <v>387</v>
-      </c>
-      <c r="H17" s="201"/>
-      <c r="I17" s="202" t="s">
-        <v>388</v>
-      </c>
-      <c r="J17" s="202"/>
-      <c r="K17" s="198" t="s">
-        <v>390</v>
-      </c>
-      <c r="L17" s="198"/>
-      <c r="M17" s="196" t="s">
-        <v>389</v>
-      </c>
-      <c r="N17" s="197"/>
+      <c r="N17" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="X2:AL2"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
@@ -6094,6 +6096,19 @@
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6104,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEADE07-63F5-4EB7-99ED-6A9CAA40D28D}">
   <dimension ref="C2:Y21"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6182,12 +6197,12 @@
       <c r="P4" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="V4" s="206" t="s">
-        <v>326</v>
-      </c>
-      <c r="W4" s="207"/>
-      <c r="X4" s="207"/>
-      <c r="Y4" s="208"/>
+      <c r="V4" s="208" t="s">
+        <v>324</v>
+      </c>
+      <c r="W4" s="209"/>
+      <c r="X4" s="209"/>
+      <c r="Y4" s="210"/>
     </row>
     <row r="5" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="44">
@@ -6217,13 +6232,13 @@
       <c r="O5" s="72"/>
       <c r="P5" s="48"/>
       <c r="V5" s="103" t="s">
-        <v>327</v>
-      </c>
-      <c r="W5" s="209" t="s">
-        <v>328</v>
-      </c>
-      <c r="X5" s="207"/>
-      <c r="Y5" s="208"/>
+        <v>325</v>
+      </c>
+      <c r="W5" s="211" t="s">
+        <v>326</v>
+      </c>
+      <c r="X5" s="209"/>
+      <c r="Y5" s="210"/>
     </row>
     <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6" s="44">
@@ -6254,16 +6269,16 @@
         <v>195</v>
       </c>
       <c r="P6" s="73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V6" s="104">
         <v>0</v>
       </c>
-      <c r="W6" s="210" t="s">
-        <v>329</v>
-      </c>
-      <c r="X6" s="211"/>
-      <c r="Y6" s="212"/>
+      <c r="W6" s="212" t="s">
+        <v>327</v>
+      </c>
+      <c r="X6" s="213"/>
+      <c r="Y6" s="214"/>
     </row>
     <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C7" s="44">
@@ -6295,11 +6310,11 @@
       <c r="V7" s="105">
         <v>1</v>
       </c>
-      <c r="W7" s="213" t="s">
-        <v>330</v>
-      </c>
-      <c r="X7" s="214"/>
-      <c r="Y7" s="215"/>
+      <c r="W7" s="215" t="s">
+        <v>328</v>
+      </c>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="217"/>
     </row>
     <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8" s="44">
@@ -6331,11 +6346,11 @@
       <c r="V8" s="105">
         <v>2</v>
       </c>
-      <c r="W8" s="213" t="s">
-        <v>330</v>
-      </c>
-      <c r="X8" s="214"/>
-      <c r="Y8" s="215"/>
+      <c r="W8" s="215" t="s">
+        <v>328</v>
+      </c>
+      <c r="X8" s="216"/>
+      <c r="Y8" s="217"/>
     </row>
     <row r="9" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="44">
@@ -6367,11 +6382,11 @@
       <c r="V9" s="106">
         <v>3</v>
       </c>
-      <c r="W9" s="203" t="s">
-        <v>330</v>
-      </c>
-      <c r="X9" s="204"/>
-      <c r="Y9" s="205"/>
+      <c r="W9" s="205" t="s">
+        <v>328</v>
+      </c>
+      <c r="X9" s="206"/>
+      <c r="Y9" s="207"/>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C10" s="44">
@@ -6424,7 +6439,7 @@
         <v>271</v>
       </c>
       <c r="P11" s="48" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.25">
@@ -6432,10 +6447,10 @@
         <v>17</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K12" s="50" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N12" s="69">
         <v>8</v>
@@ -6443,15 +6458,15 @@
       <c r="O12" s="70"/>
       <c r="P12" s="73"/>
     </row>
-    <row r="13" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="54">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="I13" s="242">
         <v>18</v>
       </c>
-      <c r="J13" s="55" t="s">
-        <v>400</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>401</v>
+      <c r="J13" s="243" t="s">
+        <v>397</v>
+      </c>
+      <c r="K13" s="244" t="s">
+        <v>398</v>
       </c>
       <c r="N13" s="71">
         <v>9</v>
@@ -6459,7 +6474,16 @@
       <c r="O13" s="72"/>
       <c r="P13" s="48"/>
     </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>408</v>
+      </c>
       <c r="N14" s="69">
         <v>10</v>
       </c>
@@ -6467,7 +6491,7 @@
         <v>271</v>
       </c>
       <c r="P14" s="73" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="3:25" x14ac:dyDescent="0.25">
@@ -6580,192 +6604,193 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="228" t="s">
-        <v>346</v>
-      </c>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="230"/>
+      <c r="G3" s="232" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233"/>
+      <c r="K3" s="234"/>
     </row>
     <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="233" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
+      <c r="C4" s="218" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="219"/>
+      <c r="E4" s="220"/>
       <c r="G4" s="109" t="s">
-        <v>347</v>
-      </c>
-      <c r="H4" s="226" t="s">
-        <v>334</v>
-      </c>
-      <c r="I4" s="227"/>
-      <c r="J4" s="226" t="s">
-        <v>335</v>
-      </c>
-      <c r="K4" s="227"/>
+        <v>345</v>
+      </c>
+      <c r="H4" s="230" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" s="231"/>
+      <c r="J4" s="230" t="s">
+        <v>333</v>
+      </c>
+      <c r="K4" s="231"/>
     </row>
     <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="121" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="120" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="121" t="s">
+      <c r="G5" s="110" t="s">
         <v>335</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="H5" s="225" t="s">
+        <v>349</v>
+      </c>
+      <c r="I5" s="214"/>
+      <c r="J5" s="235" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5" s="214"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="236" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="240" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="240"/>
+      <c r="E6" s="241"/>
+      <c r="G6" s="111" t="s">
+        <v>336</v>
+      </c>
+      <c r="H6" s="224" t="s">
+        <v>356</v>
+      </c>
+      <c r="I6" s="217"/>
+      <c r="J6" s="114" t="s">
+        <v>346</v>
+      </c>
+      <c r="K6" s="107" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="237"/>
+      <c r="C7" s="216" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="216"/>
+      <c r="E7" s="217"/>
+      <c r="G7" s="111" t="s">
         <v>337</v>
       </c>
-      <c r="H5" s="239" t="s">
-        <v>351</v>
-      </c>
-      <c r="I5" s="212"/>
-      <c r="J5" s="232" t="s">
+      <c r="H7" s="224" t="s">
+        <v>356</v>
+      </c>
+      <c r="I7" s="217"/>
+      <c r="J7" s="224" t="s">
+        <v>346</v>
+      </c>
+      <c r="K7" s="217"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="237"/>
+      <c r="C8" s="216" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="216"/>
+      <c r="E8" s="217"/>
+      <c r="G8" s="111" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="222" t="s">
         <v>348</v>
       </c>
-      <c r="K5" s="212"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="216" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" s="220" t="s">
+      <c r="I8" s="223"/>
+      <c r="J8" s="224" t="s">
+        <v>346</v>
+      </c>
+      <c r="K8" s="217"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="238"/>
+      <c r="C9" s="206" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="221"/>
-      <c r="G6" s="111" t="s">
-        <v>338</v>
-      </c>
-      <c r="H6" s="231" t="s">
-        <v>358</v>
-      </c>
-      <c r="I6" s="215"/>
-      <c r="J6" s="114" t="s">
+      <c r="D9" s="206"/>
+      <c r="E9" s="207"/>
+      <c r="G9" s="111" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="K6" s="107" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="217"/>
-      <c r="C7" s="214" t="s">
-        <v>357</v>
-      </c>
-      <c r="D7" s="214"/>
-      <c r="E7" s="215"/>
-      <c r="G7" s="111" t="s">
-        <v>339</v>
-      </c>
-      <c r="H7" s="231" t="s">
-        <v>358</v>
-      </c>
-      <c r="I7" s="215"/>
-      <c r="J7" s="231" t="s">
-        <v>348</v>
-      </c>
-      <c r="K7" s="215"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="217"/>
-      <c r="C8" s="214" t="s">
-        <v>355</v>
-      </c>
-      <c r="D8" s="214"/>
-      <c r="E8" s="215"/>
-      <c r="G8" s="111" t="s">
-        <v>340</v>
-      </c>
-      <c r="H8" s="237" t="s">
-        <v>350</v>
-      </c>
-      <c r="I8" s="238"/>
-      <c r="J8" s="231" t="s">
-        <v>348</v>
-      </c>
-      <c r="K8" s="215"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="218"/>
-      <c r="C9" s="204" t="s">
+      <c r="I9" s="102" t="s">
         <v>356</v>
       </c>
-      <c r="D9" s="204"/>
-      <c r="E9" s="205"/>
-      <c r="G9" s="111" t="s">
-        <v>341</v>
-      </c>
-      <c r="H9" s="113" t="s">
-        <v>350</v>
-      </c>
-      <c r="I9" s="102" t="s">
-        <v>358</v>
-      </c>
-      <c r="J9" s="231" t="s">
-        <v>348</v>
-      </c>
-      <c r="K9" s="215"/>
+      <c r="J9" s="224" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" s="217"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="236" t="s">
+      <c r="H10" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="205"/>
-      <c r="J10" s="219" t="s">
-        <v>348</v>
-      </c>
-      <c r="K10" s="205"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="239" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="207"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G12" s="116" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H12" s="115" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I12" s="108" t="s">
+        <v>340</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="K12" s="93" t="s">
         <v>342</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="K12" s="93" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="117" t="s">
-        <v>352</v>
-      </c>
-      <c r="H13" s="224" t="s">
-        <v>345</v>
-      </c>
-      <c r="I13" s="225"/>
+        <v>350</v>
+      </c>
+      <c r="H13" s="228" t="s">
+        <v>343</v>
+      </c>
+      <c r="I13" s="229"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G14" s="118" t="s">
-        <v>350</v>
-      </c>
-      <c r="H14" s="222" t="s">
-        <v>349</v>
-      </c>
-      <c r="I14" s="223"/>
+        <v>348</v>
+      </c>
+      <c r="H14" s="226" t="s">
+        <v>347</v>
+      </c>
+      <c r="I14" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H4:I4"/>
@@ -6776,12 +6801,11 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs.xlsx
+++ b/docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Documents\MeusProjetos\Limp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA2DE84-BED8-4D16-BA6F-D2D40FDD943B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B03308E-A3E7-469E-8585-3FE984ED27B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{F5B98BAD-16EA-41AC-8663-C3F0F8405BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction format" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="409">
   <si>
     <t>Base Opcode</t>
   </si>
@@ -834,9 +834,6 @@
     <t>BB</t>
   </si>
   <si>
-    <t>Mode</t>
-  </si>
-  <si>
     <t>Cause</t>
   </si>
   <si>
@@ -846,15 +843,6 @@
     <t>127 -&gt; 255</t>
   </si>
   <si>
-    <t>A:Abort</t>
-  </si>
-  <si>
-    <t>T:Trap</t>
-  </si>
-  <si>
-    <t>F:Fault</t>
-  </si>
-  <si>
     <t>Do not save the execution address</t>
   </si>
   <si>
@@ -871,9 +859,6 @@
   </si>
   <si>
     <t>Hardware Reserved</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>[JL]
@@ -1391,6 +1376,12 @@
 STSD.cc
 MMSI.cc
 MMSD.cc</t>
+  </si>
+  <si>
+    <t>Denied Memory data Access</t>
+  </si>
+  <si>
+    <t>Denied Code Access</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -2322,11 +2313,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2458,9 +2464,7 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2512,23 +2516,14 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2750,24 +2745,39 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2777,32 +2787,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2825,87 +2913,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2945,6 +2952,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2963,72 +3021,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3467,50 +3465,50 @@
       <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="156" t="s">
+      <c r="F6" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="157" t="s">
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="157"/>
-      <c r="N6" s="153" t="s">
+      <c r="M6" s="153"/>
+      <c r="N6" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="155"/>
+      <c r="O6" s="158"/>
       <c r="P6" s="159" t="s">
         <v>3</v>
       </c>
       <c r="Q6" s="160"/>
       <c r="R6" s="161"/>
-      <c r="S6" s="153" t="s">
+      <c r="S6" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="154"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="157" t="s">
+      <c r="T6" s="155"/>
+      <c r="U6" s="158"/>
+      <c r="V6" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="157"/>
-      <c r="X6" s="157"/>
-      <c r="Y6" s="157"/>
-      <c r="Z6" s="157"/>
-      <c r="AA6" s="157"/>
-      <c r="AB6" s="157"/>
-      <c r="AC6" s="157"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="157"/>
-      <c r="AF6" s="157"/>
-      <c r="AG6" s="157"/>
-      <c r="AH6" s="157"/>
-      <c r="AI6" s="157"/>
-      <c r="AJ6" s="157"/>
-      <c r="AK6" s="158"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="153"/>
+      <c r="AB6" s="153"/>
+      <c r="AC6" s="153"/>
+      <c r="AD6" s="153"/>
+      <c r="AE6" s="153"/>
+      <c r="AF6" s="153"/>
+      <c r="AG6" s="153"/>
+      <c r="AH6" s="153"/>
+      <c r="AI6" s="153"/>
+      <c r="AJ6" s="153"/>
+      <c r="AK6" s="157"/>
     </row>
     <row r="7" spans="3:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
@@ -3624,56 +3622,56 @@
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="156" t="s">
+      <c r="F10" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="157" t="s">
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="157"/>
-      <c r="N10" s="153" t="s">
+      <c r="M10" s="153"/>
+      <c r="N10" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="153" t="s">
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="S10" s="155"/>
+      <c r="S10" s="158"/>
       <c r="T10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="153" t="s">
+      <c r="U10" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="154"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="153" t="s">
+      <c r="V10" s="155"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="153" t="s">
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="157" t="s">
+      <c r="AB10" s="155"/>
+      <c r="AC10" s="158"/>
+      <c r="AD10" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="157"/>
-      <c r="AF10" s="157"/>
-      <c r="AG10" s="157"/>
-      <c r="AH10" s="157"/>
-      <c r="AI10" s="157"/>
-      <c r="AJ10" s="157"/>
-      <c r="AK10" s="158"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="153"/>
+      <c r="AH10" s="153"/>
+      <c r="AI10" s="153"/>
+      <c r="AJ10" s="153"/>
+      <c r="AK10" s="157"/>
     </row>
     <row r="11" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
@@ -3787,54 +3785,54 @@
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="156" t="s">
+      <c r="F14" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="153" t="s">
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="155"/>
-      <c r="N14" s="153" t="s">
+      <c r="M14" s="158"/>
+      <c r="N14" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="158"/>
       <c r="T14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="153" t="s">
+      <c r="U14" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="154"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="153" t="s">
+      <c r="V14" s="155"/>
+      <c r="W14" s="158"/>
+      <c r="X14" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="153" t="s">
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="158"/>
+      <c r="AA14" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="157" t="s">
+      <c r="AB14" s="155"/>
+      <c r="AC14" s="158"/>
+      <c r="AD14" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="AE14" s="157"/>
-      <c r="AF14" s="157"/>
-      <c r="AG14" s="157"/>
-      <c r="AH14" s="157"/>
-      <c r="AI14" s="157"/>
-      <c r="AJ14" s="157"/>
-      <c r="AK14" s="158"/>
+      <c r="AE14" s="153"/>
+      <c r="AF14" s="153"/>
+      <c r="AG14" s="153"/>
+      <c r="AH14" s="153"/>
+      <c r="AI14" s="153"/>
+      <c r="AJ14" s="153"/>
+      <c r="AK14" s="157"/>
     </row>
     <row r="15" spans="3:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
@@ -3948,48 +3946,48 @@
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="156" t="s">
+      <c r="F18" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157" t="s">
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="157"/>
-      <c r="N18" s="153" t="s">
+      <c r="M18" s="153"/>
+      <c r="N18" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="153" t="s">
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="154"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="157" t="s">
+      <c r="T18" s="155"/>
+      <c r="U18" s="158"/>
+      <c r="V18" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="157"/>
-      <c r="Z18" s="157"/>
-      <c r="AA18" s="157"/>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="157"/>
-      <c r="AD18" s="157"/>
-      <c r="AE18" s="157"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="157"/>
-      <c r="AI18" s="157"/>
-      <c r="AJ18" s="157"/>
-      <c r="AK18" s="158"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="153"/>
+      <c r="Z18" s="153"/>
+      <c r="AA18" s="153"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="153"/>
+      <c r="AD18" s="153"/>
+      <c r="AE18" s="153"/>
+      <c r="AF18" s="153"/>
+      <c r="AG18" s="153"/>
+      <c r="AH18" s="153"/>
+      <c r="AI18" s="153"/>
+      <c r="AJ18" s="153"/>
+      <c r="AK18" s="157"/>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
@@ -4103,56 +4101,56 @@
       <c r="E22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F22" s="156" t="s">
+      <c r="F22" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157" t="s">
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="157"/>
-      <c r="N22" s="153" t="s">
+      <c r="M22" s="153"/>
+      <c r="N22" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="158"/>
       <c r="S22" s="2">
         <v>1</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U22" s="153" t="s">
+      <c r="U22" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="154"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="153" t="s">
+      <c r="V22" s="155"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="154"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="153" t="s">
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="154"/>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="153" t="s">
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="158"/>
+      <c r="AD22" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="AE22" s="154"/>
-      <c r="AF22" s="154"/>
-      <c r="AG22" s="154"/>
-      <c r="AH22" s="154"/>
-      <c r="AI22" s="154"/>
-      <c r="AJ22" s="154"/>
-      <c r="AK22" s="162"/>
+      <c r="AE22" s="155"/>
+      <c r="AF22" s="155"/>
+      <c r="AG22" s="155"/>
+      <c r="AH22" s="155"/>
+      <c r="AI22" s="155"/>
+      <c r="AJ22" s="155"/>
+      <c r="AK22" s="156"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
@@ -4263,42 +4261,42 @@
       <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="156" t="s">
+      <c r="F26" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="153" t="s">
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="154"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
-      <c r="T26" s="154"/>
-      <c r="U26" s="154"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="154"/>
-      <c r="X26" s="154"/>
-      <c r="Y26" s="154"/>
-      <c r="Z26" s="154"/>
-      <c r="AA26" s="154"/>
-      <c r="AB26" s="154"/>
-      <c r="AC26" s="154"/>
-      <c r="AD26" s="154"/>
-      <c r="AE26" s="154"/>
-      <c r="AF26" s="154"/>
-      <c r="AG26" s="154"/>
-      <c r="AH26" s="154"/>
-      <c r="AI26" s="154"/>
-      <c r="AJ26" s="154"/>
-      <c r="AK26" s="162"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="155"/>
+      <c r="AF26" s="155"/>
+      <c r="AG26" s="155"/>
+      <c r="AH26" s="155"/>
+      <c r="AI26" s="155"/>
+      <c r="AJ26" s="155"/>
+      <c r="AK26" s="156"/>
     </row>
     <row r="27" spans="2:37" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,6 +4415,25 @@
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="V6:AK6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="AD10:AK10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="U10:W10"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="L26:AK26"/>
     <mergeCell ref="AD14:AK14"/>
@@ -4433,25 +4450,6 @@
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="V6:AK6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="AD10:AK10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="X22:Z22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4479,10 +4477,10 @@
   <sheetData>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="168"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="25" t="s">
         <v>8</v>
       </c>
@@ -4503,10 +4501,10 @@
       <c r="B5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="169" t="s">
+      <c r="C5" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="170"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
@@ -4522,18 +4520,18 @@
       <c r="J5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="126" t="s">
-        <v>380</v>
+      <c r="K5" s="121" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="164"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
@@ -4549,18 +4547,18 @@
       <c r="J6" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="K6" s="90" t="s">
-        <v>318</v>
+      <c r="K6" s="85" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="164"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="7" t="s">
         <v>157</v>
       </c>
@@ -4576,20 +4574,20 @@
       <c r="J7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="90" t="s">
-        <v>319</v>
+      <c r="K7" s="85" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="164"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>118</v>
@@ -4603,18 +4601,18 @@
       <c r="J8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="90" t="s">
-        <v>391</v>
+      <c r="K8" s="85" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="163" t="s">
+      <c r="C9" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="164"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="7" t="s">
         <v>158</v>
       </c>
@@ -4630,20 +4628,20 @@
       <c r="J9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K9" s="90" t="s">
-        <v>392</v>
+      <c r="K9" s="85" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="163" t="s">
+      <c r="C10" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="164"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>120</v>
@@ -4657,18 +4655,18 @@
       <c r="J10" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="K10" s="90" t="s">
-        <v>393</v>
+      <c r="K10" s="85" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="164"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="7" t="s">
         <v>160</v>
       </c>
@@ -4684,20 +4682,20 @@
       <c r="J11" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="K11" s="90" t="s">
-        <v>394</v>
+      <c r="K11" s="85" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="164"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>122</v>
@@ -4711,20 +4709,20 @@
       <c r="J12" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K12" s="90" t="s">
-        <v>370</v>
+      <c r="K12" s="85" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="163" t="s">
+      <c r="C13" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="164"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>123</v>
@@ -4738,8 +4736,8 @@
       <c r="J13" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="K13" s="90" t="s">
-        <v>371</v>
+      <c r="K13" s="85" t="s">
+        <v>366</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -4747,12 +4745,12 @@
       <c r="B14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="163" t="s">
+      <c r="C14" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="164"/>
+      <c r="D14" s="163"/>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>124</v>
@@ -4766,20 +4764,20 @@
       <c r="J14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="K14" s="90" t="s">
-        <v>372</v>
+      <c r="K14" s="85" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="164"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>125</v>
@@ -4793,8 +4791,8 @@
       <c r="J15" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K15" s="90" t="s">
-        <v>373</v>
+      <c r="K15" s="85" t="s">
+        <v>368</v>
       </c>
       <c r="O15" s="1"/>
     </row>
@@ -4802,12 +4800,12 @@
       <c r="B16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="163" t="s">
+      <c r="C16" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="164"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>126</v>
@@ -4821,20 +4819,20 @@
       <c r="J16" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="90" t="s">
-        <v>320</v>
+      <c r="K16" s="85" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="163" t="s">
+      <c r="C17" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="164"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>127</v>
@@ -4848,20 +4846,20 @@
       <c r="J17" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="90" t="s">
-        <v>321</v>
+      <c r="K17" s="85" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="164"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>128</v>
@@ -4875,18 +4873,18 @@
       <c r="J18" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K18" s="90" t="s">
-        <v>322</v>
+      <c r="K18" s="85" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="163" t="s">
+      <c r="C19" s="162" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="164"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="7" t="s">
         <v>161</v>
       </c>
@@ -4902,18 +4900,18 @@
       <c r="J19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="K19" s="90" t="s">
-        <v>323</v>
+      <c r="K19" s="85" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="165" t="s">
+      <c r="C20" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="166"/>
+      <c r="D20" s="169"/>
       <c r="E20" s="9" t="s">
         <v>162</v>
       </c>
@@ -4929,7 +4927,7 @@
       <c r="J20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="124" t="s">
+      <c r="K20" s="119" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4946,7 +4944,7 @@
       <c r="J21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="124" t="s">
+      <c r="K21" s="119" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4970,7 +4968,7 @@
       <c r="J22" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K22" s="124" t="s">
+      <c r="K22" s="119" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4988,7 +4986,7 @@
       <c r="J23" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K23" s="124" t="s">
+      <c r="K23" s="119" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5000,13 +4998,13 @@
         <v>188</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="K24" s="125" t="s">
-        <v>374</v>
+        <v>294</v>
+      </c>
+      <c r="K24" s="120" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -5014,16 +5012,16 @@
         <v>135</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="K25" s="125" t="s">
-        <v>375</v>
+        <v>295</v>
+      </c>
+      <c r="K25" s="120" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -5039,8 +5037,8 @@
       <c r="J26" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="125" t="s">
-        <v>376</v>
+      <c r="K26" s="120" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -5048,16 +5046,16 @@
         <v>137</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K27" s="125" t="s">
-        <v>377</v>
+        <v>298</v>
+      </c>
+      <c r="K27" s="120" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -5068,13 +5066,13 @@
         <v>173</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="K28" s="125" t="s">
-        <v>378</v>
+        <v>302</v>
+      </c>
+      <c r="K28" s="120" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -5082,16 +5080,16 @@
         <v>139</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="K29" s="125" t="s">
-        <v>379</v>
+        <v>303</v>
+      </c>
+      <c r="K29" s="120" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -5107,8 +5105,8 @@
       <c r="J30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K30" s="90" t="s">
-        <v>281</v>
+      <c r="K30" s="85" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -5116,15 +5114,15 @@
         <v>141</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J31" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="90" t="s">
+      <c r="K31" s="85" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5133,16 +5131,16 @@
         <v>142</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K32" s="90" t="s">
-        <v>293</v>
+      <c r="K32" s="85" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.25">
@@ -5153,12 +5151,12 @@
         <v>254</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="90" t="s">
+      <c r="K33" s="85" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5170,13 +5168,13 @@
         <v>256</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="90" t="s">
-        <v>294</v>
+      <c r="K34" s="85" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.25">
@@ -5184,16 +5182,16 @@
         <v>145</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J35" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K35" s="90" t="s">
-        <v>292</v>
+      <c r="K35" s="85" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="7:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5201,20 +5199,28 @@
         <v>146</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="J36" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="91" t="s">
-        <v>295</v>
+      <c r="K36" s="86" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -5224,14 +5230,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5242,7 +5240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3D4C0B-D305-42E3-A494-0FDBD834ABB7}">
   <dimension ref="D1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -5253,89 +5251,89 @@
   <sheetData>
     <row r="1" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="184" t="s">
+      <c r="E2" s="188" t="s">
         <v>203</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="X2" s="193" t="s">
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="190"/>
+      <c r="P2" s="190"/>
+      <c r="Q2" s="190"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="191"/>
+      <c r="X2" s="170" t="s">
         <v>215</v>
       </c>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="194"/>
-      <c r="AI2" s="194"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="195"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="171"/>
+      <c r="AK2" s="171"/>
+      <c r="AL2" s="172"/>
     </row>
     <row r="3" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="85">
+      <c r="E3" s="80">
         <v>0</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="81">
         <v>1</v>
       </c>
-      <c r="G3" s="86">
+      <c r="G3" s="81">
         <v>2</v>
       </c>
-      <c r="H3" s="86">
+      <c r="H3" s="81">
         <v>3</v>
       </c>
-      <c r="I3" s="86">
+      <c r="I3" s="81">
         <v>4</v>
       </c>
-      <c r="J3" s="86">
+      <c r="J3" s="81">
         <v>5</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="81">
         <v>6</v>
       </c>
-      <c r="L3" s="87">
+      <c r="L3" s="82">
         <v>7</v>
       </c>
-      <c r="M3" s="88">
+      <c r="M3" s="83">
         <v>8</v>
       </c>
-      <c r="N3" s="86">
+      <c r="N3" s="81">
         <v>9</v>
       </c>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="P3" s="86" t="s">
+      <c r="P3" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="Q3" s="86" t="s">
+      <c r="Q3" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="R3" s="86" t="s">
+      <c r="R3" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="S3" s="86" t="s">
+      <c r="S3" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="T3" s="87" t="s">
+      <c r="T3" s="82" t="s">
         <v>12</v>
       </c>
       <c r="X3" s="40" t="s">
@@ -5348,16 +5346,16 @@
         <v>50</v>
       </c>
       <c r="AA3" s="41" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="AB3" s="41" t="s">
         <v>51</v>
       </c>
       <c r="AC3" s="41" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AD3" s="41" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AE3" s="41" t="s">
         <v>105</v>
@@ -5388,86 +5386,86 @@
       <c r="D4" s="33">
         <v>0</v>
       </c>
-      <c r="E4" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>406</v>
-      </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="80" t="s">
-        <v>402</v>
-      </c>
-      <c r="I4" s="82" t="s">
-        <v>279</v>
+      <c r="E4" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>401</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>274</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
-      <c r="L4" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="M4" s="79" t="s">
-        <v>410</v>
-      </c>
-      <c r="N4" s="152"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="80" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q4" s="82" t="s">
-        <v>278</v>
-      </c>
-      <c r="R4" s="81"/>
-      <c r="S4" s="122" t="s">
-        <v>411</v>
-      </c>
-      <c r="T4" s="84" t="s">
-        <v>389</v>
-      </c>
-      <c r="X4" s="196" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y4" s="198" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z4" s="198" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA4" s="202" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB4" s="198" t="s">
-        <v>367</v>
-      </c>
-      <c r="AC4" s="202" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD4" s="202" t="s">
-        <v>367</v>
-      </c>
-      <c r="AE4" s="198" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF4" s="198" t="s">
-        <v>367</v>
-      </c>
-      <c r="AG4" s="198" t="s">
-        <v>367</v>
-      </c>
-      <c r="AH4" s="198" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI4" s="198" t="s">
-        <v>367</v>
-      </c>
-      <c r="AJ4" s="198" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK4" s="198" t="s">
-        <v>367</v>
-      </c>
-      <c r="AL4" s="200" t="s">
-        <v>367</v>
+      <c r="L4" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="M4" s="74" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" s="147"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q4" s="77" t="s">
+        <v>273</v>
+      </c>
+      <c r="R4" s="76"/>
+      <c r="S4" s="117" t="s">
+        <v>406</v>
+      </c>
+      <c r="T4" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="X4" s="173" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y4" s="175" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z4" s="175" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA4" s="179" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB4" s="175" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC4" s="179" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD4" s="179" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE4" s="175" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF4" s="175" t="s">
+        <v>362</v>
+      </c>
+      <c r="AG4" s="175" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH4" s="175" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI4" s="175" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ4" s="175" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK4" s="175" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL4" s="177" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5478,26 +5476,26 @@
         <v>204</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="36" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K5" s="29"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="78" t="s">
+      <c r="L5" s="71"/>
+      <c r="M5" s="73" t="s">
         <v>205</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P5" s="37" t="s">
         <v>210</v>
@@ -5506,41 +5504,41 @@
         <v>208</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="199"/>
-      <c r="Z5" s="199"/>
-      <c r="AA5" s="203"/>
-      <c r="AB5" s="199"/>
-      <c r="AC5" s="203"/>
-      <c r="AD5" s="204"/>
-      <c r="AE5" s="199"/>
-      <c r="AF5" s="199"/>
-      <c r="AG5" s="199"/>
-      <c r="AH5" s="199"/>
-      <c r="AI5" s="199"/>
-      <c r="AJ5" s="199"/>
-      <c r="AK5" s="199"/>
-      <c r="AL5" s="201"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="176"/>
+      <c r="Z5" s="176"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="176"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="176"/>
+      <c r="AF5" s="176"/>
+      <c r="AG5" s="176"/>
+      <c r="AH5" s="176"/>
+      <c r="AI5" s="176"/>
+      <c r="AJ5" s="176"/>
+      <c r="AK5" s="176"/>
+      <c r="AL5" s="178"/>
     </row>
     <row r="6" spans="4:38" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="34">
         <v>2</v>
       </c>
-      <c r="E6" s="149" t="s">
-        <v>401</v>
+      <c r="E6" s="144" t="s">
+        <v>396</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="G6" s="138" t="s">
-        <v>399</v>
+        <v>270</v>
+      </c>
+      <c r="G6" s="133" t="s">
+        <v>394</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I6" s="38" t="s">
         <v>206</v>
@@ -5549,46 +5547,46 @@
         <v>207</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="L6" s="123" t="s">
-        <v>396</v>
-      </c>
-      <c r="M6" s="148"/>
+        <v>390</v>
+      </c>
+      <c r="L6" s="118" t="s">
+        <v>391</v>
+      </c>
+      <c r="M6" s="143"/>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="128"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="123"/>
     </row>
     <row r="7" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="35">
         <v>3</v>
       </c>
-      <c r="E7" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="J7" s="75" t="s">
-        <v>405</v>
+      <c r="E7" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>400</v>
       </c>
       <c r="K7" s="31"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="89" t="s">
-        <v>276</v>
+      <c r="L7" s="72"/>
+      <c r="M7" s="84" t="s">
+        <v>271</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
@@ -5600,83 +5598,83 @@
     </row>
     <row r="8" spans="4:38" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:38" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="188" t="s">
+      <c r="E9" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="189"/>
-      <c r="G9" s="190" t="s">
+      <c r="F9" s="193"/>
+      <c r="G9" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="190"/>
-      <c r="I9" s="191" t="s">
+      <c r="H9" s="194"/>
+      <c r="I9" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192" t="s">
+      <c r="J9" s="195"/>
+      <c r="K9" s="196" t="s">
         <v>200</v>
       </c>
-      <c r="L9" s="192"/>
-      <c r="M9" s="180" t="s">
+      <c r="L9" s="196"/>
+      <c r="M9" s="184" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="181"/>
-      <c r="O9" s="182" t="s">
+      <c r="N9" s="185"/>
+      <c r="O9" s="186" t="s">
         <v>201</v>
       </c>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="178" t="s">
+      <c r="P9" s="187"/>
+      <c r="Q9" s="182" t="s">
         <v>202</v>
       </c>
-      <c r="R9" s="179"/>
+      <c r="R9" s="183"/>
     </row>
     <row r="10" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="4:38" ht="84.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="85">
+      <c r="E11" s="80">
         <v>0</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="81">
         <v>1</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="81">
         <v>2</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="81">
         <v>3</v>
       </c>
-      <c r="I11" s="86">
+      <c r="I11" s="81">
         <v>4</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="81">
         <v>5</v>
       </c>
-      <c r="K11" s="86">
+      <c r="K11" s="81">
         <v>6</v>
       </c>
-      <c r="L11" s="87">
+      <c r="L11" s="82">
         <v>7</v>
       </c>
-      <c r="M11" s="88">
+      <c r="M11" s="83">
         <v>8</v>
       </c>
-      <c r="N11" s="86">
+      <c r="N11" s="81">
         <v>9</v>
       </c>
-      <c r="O11" s="86" t="s">
+      <c r="O11" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="P11" s="86" t="s">
+      <c r="P11" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="Q11" s="86" t="s">
+      <c r="Q11" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="R11" s="86" t="s">
+      <c r="R11" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="S11" s="86" t="s">
+      <c r="S11" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="T11" s="87" t="s">
+      <c r="T11" s="82" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5684,43 +5682,43 @@
       <c r="D12" s="33">
         <v>0</v>
       </c>
-      <c r="E12" s="140" t="str">
+      <c r="E12" s="135" t="str">
         <f>+E4</f>
         <v>[JL]
 NOP</v>
       </c>
-      <c r="F12" s="151" t="str">
+      <c r="F12" s="146" t="str">
         <f t="shared" ref="F12:T12" si="0">+F4</f>
         <v>[SI]
 HALT
 WAIT, WAITI WAITR</v>
       </c>
-      <c r="G12" s="130">
+      <c r="G12" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="151" t="str">
+      <c r="H12" s="146" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
 POPAS
 POPSS
 POPS</v>
       </c>
-      <c r="I12" s="151" t="str">
+      <c r="I12" s="146" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
 POPR
 POPP</v>
       </c>
-      <c r="J12" s="130">
+      <c r="J12" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="130">
+      <c r="K12" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="144" t="str">
+      <c r="L12" s="139" t="str">
         <f t="shared" si="0"/>
         <v>[AMI]
 LDMB
@@ -5728,7 +5726,7 @@
 LDMD
 LDMQ</v>
       </c>
-      <c r="M12" s="245" t="str">
+      <c r="M12" s="151" t="str">
         <f t="shared" si="0"/>
         <v>[SI]
 IN, OUT
@@ -5737,33 +5735,33 @@
 CPCHKST
 CPCMD</v>
       </c>
-      <c r="N12" s="129">
+      <c r="N12" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="130">
+      <c r="O12" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="151" t="str">
+      <c r="P12" s="146" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
 PSHAS
 PSHSS
 PSHS</v>
       </c>
-      <c r="Q12" s="151" t="str">
+      <c r="Q12" s="146" t="str">
         <f t="shared" si="0"/>
         <v>[IR]
 PSHI
 PSHR
 PSHP</v>
       </c>
-      <c r="R12" s="130">
+      <c r="R12" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="151" t="str">
+      <c r="S12" s="146" t="str">
         <f t="shared" si="0"/>
         <v>[CDI]
 STSI.cc
@@ -5771,7 +5769,7 @@
 MMSI.cc
 MMSD.cc</v>
       </c>
-      <c r="T12" s="145" t="str">
+      <c r="T12" s="140" t="str">
         <f t="shared" si="0"/>
         <v>[AMI] #OA
 STRB
@@ -5784,27 +5782,27 @@
       <c r="D13" s="34">
         <v>1</v>
       </c>
-      <c r="E13" s="141" t="str">
+      <c r="E13" s="136" t="str">
         <f t="shared" ref="E13:T13" si="1">+E5</f>
         <v>[AMI]
 ADD, ADC
 SUB, SBB</v>
       </c>
-      <c r="F13" s="143" t="str">
+      <c r="F13" s="138" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 MUL, HMUL
 DIV, MOD</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="132">
+      <c r="H13" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="143" t="str">
+      <c r="I13" s="138" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 INC, DEC, NEG
@@ -5812,26 +5810,26 @@
 MADC, MSBB,
 LDIV</v>
       </c>
-      <c r="J13" s="143" t="str">
+      <c r="J13" s="138" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 CMP, CPB</v>
       </c>
-      <c r="K13" s="132">
+      <c r="K13" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="133">
+      <c r="L13" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="141" t="str">
+      <c r="M13" s="136" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 AND, OR,
 XOR, NAND</v>
       </c>
-      <c r="N13" s="143" t="str">
+      <c r="N13" s="138" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 NOT
@@ -5839,24 +5837,24 @@
 SWAP
 SWAPB</v>
       </c>
-      <c r="O13" s="143" t="str">
+      <c r="O13" s="138" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 TEST, BIT</v>
       </c>
-      <c r="P13" s="143" t="str">
+      <c r="P13" s="138" t="str">
         <f t="shared" si="1"/>
         <v>[AMI]
 LSHF, RSHF,
 LROT, RROT</v>
       </c>
-      <c r="Q13" s="143" t="str">
+      <c r="Q13" s="138" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 FADD, FSUB
 FMUL, FDIV</v>
       </c>
-      <c r="R13" s="143" t="str">
+      <c r="R13" s="138" t="str">
         <f t="shared" si="1"/>
         <v>[SI]
 FSTEQ, FSTNE
@@ -5865,11 +5863,11 @@
 FSTEZ, FSTNZ
 FSTGZ, FSTLZ</v>
       </c>
-      <c r="S13" s="132">
+      <c r="S13" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13" s="134">
+      <c r="T13" s="129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5878,7 +5876,7 @@
       <c r="D14" s="34">
         <v>2</v>
       </c>
-      <c r="E14" s="141" t="str">
+      <c r="E14" s="136" t="str">
         <f t="shared" ref="E14:T14" si="2">+E6</f>
         <v>[ADI]
 JA.cc
@@ -5886,14 +5884,14 @@
 JR.cc
 BR.cc</v>
       </c>
-      <c r="F14" s="143" t="str">
+      <c r="F14" s="138" t="str">
         <f t="shared" si="2"/>
         <v>[SI]
 RET, IRET
 ENTER, LEAVE
 INT</v>
       </c>
-      <c r="G14" s="150" t="str">
+      <c r="G14" s="145" t="str">
         <f t="shared" si="2"/>
         <v>[CDI]
 JRA.cc
@@ -5901,7 +5899,7 @@
 JRAP.cc
 BRAP.cc</v>
       </c>
-      <c r="H14" s="143" t="str">
+      <c r="H14" s="138" t="str">
         <f t="shared" si="2"/>
         <v>[CDI]
 JRR.cc
@@ -5909,55 +5907,55 @@
 XJP.cc
 XBR.cc</v>
       </c>
-      <c r="I14" s="143" t="str">
+      <c r="I14" s="138" t="str">
         <f t="shared" si="2"/>
         <v>[JL]
 JL</v>
       </c>
-      <c r="J14" s="143" t="str">
+      <c r="J14" s="138" t="str">
         <f t="shared" si="2"/>
         <v>[JL]
 BL</v>
       </c>
-      <c r="K14" s="143" t="str">
+      <c r="K14" s="138" t="str">
         <f t="shared" si="2"/>
         <v>[JL]
 JLP</v>
       </c>
-      <c r="L14" s="147" t="str">
+      <c r="L14" s="142" t="str">
         <f t="shared" si="2"/>
         <v>[JL]
 BLP</v>
       </c>
-      <c r="M14" s="131">
+      <c r="M14" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="132">
+      <c r="N14" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="132">
+      <c r="O14" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="132">
+      <c r="P14" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="132">
+      <c r="Q14" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R14" s="132">
+      <c r="R14" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S14" s="132">
+      <c r="S14" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="134">
+      <c r="T14" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5966,13 +5964,13 @@
       <c r="D15" s="35">
         <v>3</v>
       </c>
-      <c r="E15" s="142" t="str">
+      <c r="E15" s="137" t="str">
         <f t="shared" ref="E15:T15" si="3">+E7</f>
         <v>[IR]
 MOV
 MOVI</v>
       </c>
-      <c r="F15" s="146" t="str">
+      <c r="F15" s="141" t="str">
         <f t="shared" si="3"/>
         <v>[IR]
 CVBW
@@ -5980,17 +5978,17 @@
 CVBD
 CVWDI</v>
       </c>
-      <c r="G15" s="146" t="str">
+      <c r="G15" s="141" t="str">
         <f t="shared" si="3"/>
         <v>[CDI]
 MV.cc</v>
       </c>
-      <c r="H15" s="146" t="str">
+      <c r="H15" s="141" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 XCHG</v>
       </c>
-      <c r="I15" s="146" t="str">
+      <c r="I15" s="141" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 STEQ, STNE
@@ -6000,21 +5998,21 @@
 STAE, STBE
 STEZ, STNZ...</v>
       </c>
-      <c r="J15" s="146" t="str">
+      <c r="J15" s="141" t="str">
         <f t="shared" si="3"/>
         <v>[IR]
 MVFR
 MVTR</v>
       </c>
-      <c r="K15" s="135">
+      <c r="K15" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="136">
+      <c r="L15" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="142" t="str">
+      <c r="M15" s="137" t="str">
         <f t="shared" si="3"/>
         <v>[SI]
 STC, CLC, TGC
@@ -6024,62 +6022,75 @@
 STN, CLN, TGN
 STO, CLO...</v>
       </c>
-      <c r="N15" s="135">
+      <c r="N15" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O15" s="135">
+      <c r="O15" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="135">
+      <c r="P15" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="135">
+      <c r="Q15" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="135">
+      <c r="R15" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S15" s="135">
+      <c r="S15" s="130">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T15" s="137">
+      <c r="T15" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="4:38" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K16" s="139"/>
+      <c r="K16" s="134"/>
     </row>
     <row r="17" spans="5:14" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="174" t="s">
-        <v>383</v>
-      </c>
-      <c r="F17" s="175"/>
-      <c r="G17" s="176" t="s">
-        <v>384</v>
-      </c>
-      <c r="H17" s="176"/>
-      <c r="I17" s="177" t="s">
-        <v>385</v>
-      </c>
-      <c r="J17" s="177"/>
-      <c r="K17" s="173" t="s">
-        <v>387</v>
-      </c>
-      <c r="L17" s="173"/>
-      <c r="M17" s="171" t="s">
-        <v>386</v>
-      </c>
-      <c r="N17" s="172"/>
+      <c r="E17" s="200" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" s="201"/>
+      <c r="G17" s="202" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" s="202"/>
+      <c r="I17" s="203" t="s">
+        <v>380</v>
+      </c>
+      <c r="J17" s="203"/>
+      <c r="K17" s="199" t="s">
+        <v>382</v>
+      </c>
+      <c r="L17" s="199"/>
+      <c r="M17" s="197" t="s">
+        <v>381</v>
+      </c>
+      <c r="N17" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E2:T2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="X2:AL2"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
@@ -6096,19 +6107,6 @@
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E2:T2"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6117,10 +6115,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEADE07-63F5-4EB7-99ED-6A9CAA40D28D}">
-  <dimension ref="C2:Y21"/>
+  <dimension ref="C2:W21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:K14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6129,454 +6127,416 @@
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
     <col min="11" max="11" width="33.28515625" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="37" customWidth="1"/>
-    <col min="19" max="19" width="50.5703125" customWidth="1"/>
+    <col min="15" max="15" width="37" customWidth="1"/>
+    <col min="17" max="17" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:23" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="P3" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="43">
         <v>0</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="52">
+      <c r="I4" s="50">
         <v>0</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="66">
         <v>0</v>
       </c>
-      <c r="O4" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="V4" s="208" t="s">
-        <v>324</v>
-      </c>
+      <c r="O4" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="T4" s="207" t="s">
+        <v>319</v>
+      </c>
+      <c r="U4" s="208"/>
+      <c r="V4" s="208"/>
       <c r="W4" s="209"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="210"/>
-    </row>
-    <row r="5" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="44">
         <v>1</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="50">
         <v>1</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N5" s="67">
         <v>1</v>
       </c>
-      <c r="O5" s="72"/>
-      <c r="P5" s="48"/>
-      <c r="V5" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="W5" s="211" t="s">
-        <v>326</v>
-      </c>
-      <c r="X5" s="209"/>
-      <c r="Y5" s="210"/>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="O5" s="47"/>
+      <c r="T5" s="98" t="s">
+        <v>320</v>
+      </c>
+      <c r="U5" s="210" t="s">
+        <v>321</v>
+      </c>
+      <c r="V5" s="208"/>
+      <c r="W5" s="209"/>
+    </row>
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C6" s="44">
         <v>2</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="I6" s="52">
+      <c r="I6" s="50">
         <v>2</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="66">
         <v>2</v>
       </c>
-      <c r="O6" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="P6" s="73" t="s">
-        <v>329</v>
-      </c>
-      <c r="V6" s="104">
+      <c r="O6" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="T6" s="99">
         <v>0</v>
       </c>
-      <c r="W6" s="212" t="s">
-        <v>327</v>
-      </c>
-      <c r="X6" s="213"/>
-      <c r="Y6" s="214"/>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="U6" s="211" t="s">
+        <v>322</v>
+      </c>
+      <c r="V6" s="212"/>
+      <c r="W6" s="213"/>
+    </row>
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C7" s="44">
         <v>3</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="50">
         <v>3</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="67">
         <v>3</v>
       </c>
-      <c r="O7" s="72"/>
-      <c r="P7" s="48"/>
-      <c r="V7" s="105">
+      <c r="O7" s="47"/>
+      <c r="T7" s="100">
         <v>1</v>
       </c>
-      <c r="W7" s="215" t="s">
-        <v>328</v>
-      </c>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="217"/>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="U7" s="214" t="s">
+        <v>323</v>
+      </c>
+      <c r="V7" s="215"/>
+      <c r="W7" s="216"/>
+    </row>
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C8" s="44">
         <v>4</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="93" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="50">
         <v>4</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="66">
         <v>4</v>
       </c>
-      <c r="O8" s="70"/>
-      <c r="P8" s="73"/>
-      <c r="V8" s="105">
+      <c r="O8" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="T8" s="100">
         <v>2</v>
       </c>
-      <c r="W8" s="215" t="s">
-        <v>328</v>
-      </c>
-      <c r="X8" s="216"/>
-      <c r="Y8" s="217"/>
-    </row>
-    <row r="9" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="214" t="s">
+        <v>323</v>
+      </c>
+      <c r="V8" s="215"/>
+      <c r="W8" s="216"/>
+    </row>
+    <row r="9" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="44">
         <v>5</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="94" t="s">
         <v>253</v>
       </c>
-      <c r="I9" s="52">
+      <c r="I9" s="50">
         <v>5</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="N9" s="71">
+      <c r="N9" s="67">
         <v>5</v>
       </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="48"/>
-      <c r="V9" s="106">
+      <c r="O9" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="T9" s="101">
         <v>3</v>
       </c>
-      <c r="W9" s="205" t="s">
-        <v>328</v>
-      </c>
-      <c r="X9" s="206"/>
-      <c r="Y9" s="207"/>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="U9" s="204" t="s">
+        <v>323</v>
+      </c>
+      <c r="V9" s="205"/>
+      <c r="W9" s="206"/>
+    </row>
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C10" s="44">
         <v>6</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
-      <c r="N10" s="69">
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
+      <c r="N10" s="66">
         <v>6</v>
       </c>
-      <c r="O10" s="70"/>
-      <c r="P10" s="73"/>
-    </row>
-    <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="68"/>
+    </row>
+    <row r="11" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="45">
         <v>7</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="50">
         <v>16</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="67">
         <v>7</v>
       </c>
-      <c r="O11" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="P11" s="48" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="I12" s="52">
+      <c r="O11" s="47" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I12" s="50">
         <v>17</v>
       </c>
-      <c r="J12" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="N12" s="69">
+      <c r="J12" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="N12" s="66">
         <v>8</v>
       </c>
-      <c r="O12" s="70"/>
-      <c r="P12" s="73"/>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="I13" s="242">
+      <c r="O12" s="68"/>
+    </row>
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="I13" s="148">
         <v>18</v>
       </c>
-      <c r="J13" s="243" t="s">
-        <v>397</v>
-      </c>
-      <c r="K13" s="244" t="s">
-        <v>398</v>
-      </c>
-      <c r="N13" s="71">
+      <c r="J13" s="149" t="s">
+        <v>392</v>
+      </c>
+      <c r="K13" s="150" t="s">
+        <v>393</v>
+      </c>
+      <c r="N13" s="67">
         <v>9</v>
       </c>
-      <c r="O13" s="72"/>
-      <c r="P13" s="48"/>
-    </row>
-    <row r="14" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="54" t="s">
-        <v>407</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="N14" s="69">
+      <c r="O13" s="47"/>
+    </row>
+    <row r="14" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="N14" s="66">
         <v>10</v>
       </c>
-      <c r="O14" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="P14" s="73" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N15" s="71">
+      <c r="O14" s="68" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="N15" s="67">
         <v>11</v>
       </c>
-      <c r="O15" s="72"/>
-      <c r="P15" s="48"/>
-    </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="N16" s="69">
+      <c r="O15" s="47"/>
+    </row>
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="N16" s="66">
         <v>12</v>
       </c>
-      <c r="O16" s="70"/>
-      <c r="P16" s="73"/>
-    </row>
-    <row r="17" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N17" s="71">
+      <c r="O16" s="68"/>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N17" s="67">
         <v>13</v>
       </c>
-      <c r="O17" s="72"/>
-      <c r="P17" s="48"/>
-    </row>
-    <row r="18" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N18" s="69">
+      <c r="O17" s="47"/>
+    </row>
+    <row r="18" spans="14:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="66">
         <v>14</v>
       </c>
-      <c r="O18" s="70"/>
-      <c r="P18" s="73"/>
-    </row>
-    <row r="19" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N19" s="71">
+      <c r="O18" s="68"/>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="67">
         <v>15</v>
       </c>
-      <c r="O19" s="72"/>
-      <c r="P19" s="48"/>
-      <c r="R19" s="4" t="s">
+      <c r="O19" s="47"/>
+      <c r="Q19" s="241" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N20" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="O20" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="242" t="s">
         <v>262</v>
       </c>
-      <c r="S19" s="47" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N20" s="69" t="s">
+    </row>
+    <row r="21" spans="14:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="O20" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="P20" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="R20" s="6" t="s">
+      <c r="O21" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q21" s="243" t="s">
         <v>263</v>
-      </c>
-      <c r="S20" s="48" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="14:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N21" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="O21" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="P21" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="S21" s="49" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="U8:W8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6604,193 +6564,192 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="232" t="s">
+      <c r="G3" s="229" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="231"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="234" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="235"/>
+      <c r="E4" s="236"/>
+      <c r="G4" s="104" t="s">
+        <v>340</v>
+      </c>
+      <c r="H4" s="227" t="s">
+        <v>327</v>
+      </c>
+      <c r="I4" s="228"/>
+      <c r="J4" s="227" t="s">
+        <v>328</v>
+      </c>
+      <c r="K4" s="228"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="114" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="115" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="116" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="105" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" s="240" t="s">
         <v>344</v>
       </c>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
-      <c r="K3" s="234"/>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="218" t="s">
+      <c r="I5" s="213"/>
+      <c r="J5" s="233" t="s">
+        <v>341</v>
+      </c>
+      <c r="K5" s="213"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="217" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="221" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="221"/>
+      <c r="E6" s="222"/>
+      <c r="G6" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="232" t="s">
+        <v>351</v>
+      </c>
+      <c r="I6" s="216"/>
+      <c r="J6" s="109" t="s">
+        <v>341</v>
+      </c>
+      <c r="K6" s="102" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="218"/>
+      <c r="C7" s="215" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="215"/>
+      <c r="E7" s="216"/>
+      <c r="G7" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="H7" s="232" t="s">
+        <v>351</v>
+      </c>
+      <c r="I7" s="216"/>
+      <c r="J7" s="232" t="s">
+        <v>341</v>
+      </c>
+      <c r="K7" s="216"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="218"/>
+      <c r="C8" s="215" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="215"/>
+      <c r="E8" s="216"/>
+      <c r="G8" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="238" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" s="239"/>
+      <c r="J8" s="232" t="s">
+        <v>341</v>
+      </c>
+      <c r="K8" s="216"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="219"/>
+      <c r="C9" s="205" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="205"/>
+      <c r="E9" s="206"/>
+      <c r="G9" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="220"/>
-      <c r="G4" s="109" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" s="230" t="s">
-        <v>332</v>
-      </c>
-      <c r="I4" s="231"/>
-      <c r="J4" s="230" t="s">
-        <v>333</v>
-      </c>
-      <c r="K4" s="231"/>
-    </row>
-    <row r="5" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="119" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" s="120" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" s="121" t="s">
-        <v>333</v>
-      </c>
-      <c r="G5" s="110" t="s">
-        <v>335</v>
-      </c>
-      <c r="H5" s="225" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5" s="214"/>
-      <c r="J5" s="235" t="s">
-        <v>346</v>
-      </c>
-      <c r="K5" s="214"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="236" t="s">
+      <c r="H9" s="108" t="s">
+        <v>343</v>
+      </c>
+      <c r="I9" s="97" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="240" t="s">
-        <v>352</v>
-      </c>
-      <c r="D6" s="240"/>
-      <c r="E6" s="241"/>
-      <c r="G6" s="111" t="s">
-        <v>336</v>
-      </c>
-      <c r="H6" s="224" t="s">
-        <v>356</v>
-      </c>
-      <c r="I6" s="217"/>
-      <c r="J6" s="114" t="s">
-        <v>346</v>
-      </c>
-      <c r="K6" s="107" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="237"/>
-      <c r="C7" s="216" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="216"/>
-      <c r="E7" s="217"/>
-      <c r="G7" s="111" t="s">
-        <v>337</v>
-      </c>
-      <c r="H7" s="224" t="s">
-        <v>356</v>
-      </c>
-      <c r="I7" s="217"/>
-      <c r="J7" s="224" t="s">
-        <v>346</v>
-      </c>
-      <c r="K7" s="217"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="237"/>
-      <c r="C8" s="216" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="216"/>
-      <c r="E8" s="217"/>
-      <c r="G8" s="111" t="s">
-        <v>338</v>
-      </c>
-      <c r="H8" s="222" t="s">
-        <v>348</v>
-      </c>
-      <c r="I8" s="223"/>
-      <c r="J8" s="224" t="s">
-        <v>346</v>
-      </c>
-      <c r="K8" s="217"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="238"/>
-      <c r="C9" s="206" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" s="206"/>
-      <c r="E9" s="207"/>
-      <c r="G9" s="111" t="s">
-        <v>339</v>
-      </c>
-      <c r="H9" s="113" t="s">
-        <v>348</v>
-      </c>
-      <c r="I9" s="102" t="s">
-        <v>356</v>
-      </c>
-      <c r="J9" s="224" t="s">
-        <v>346</v>
-      </c>
-      <c r="K9" s="217"/>
+      <c r="J9" s="232" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" s="216"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="221" t="s">
+      <c r="H10" s="237" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="207"/>
-      <c r="J10" s="239" t="s">
-        <v>346</v>
-      </c>
-      <c r="K10" s="207"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="220" t="s">
+        <v>341</v>
+      </c>
+      <c r="K10" s="206"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="116" t="s">
-        <v>349</v>
-      </c>
-      <c r="H12" s="115" t="s">
-        <v>357</v>
-      </c>
-      <c r="I12" s="108" t="s">
-        <v>340</v>
+      <c r="G12" s="111" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="I12" s="103" t="s">
+        <v>335</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K12" s="93" t="s">
+        <v>336</v>
+      </c>
+      <c r="K12" s="88" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="112" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="225" t="s">
+        <v>338</v>
+      </c>
+      <c r="I13" s="226"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="113" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="223" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="117" t="s">
-        <v>350</v>
-      </c>
-      <c r="H13" s="228" t="s">
-        <v>343</v>
-      </c>
-      <c r="I13" s="229"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="118" t="s">
-        <v>348</v>
-      </c>
-      <c r="H14" s="226" t="s">
-        <v>347</v>
-      </c>
-      <c r="I14" s="227"/>
+      <c r="I14" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H4:I4"/>
@@ -6801,11 +6760,12 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
